--- a/dd.xlsx
+++ b/dd.xlsx
@@ -519,7 +519,7 @@
         <v>985016474.7555189</v>
       </c>
       <c r="H2" t="n">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -555,19 +555,19 @@
         <v>901170459.3990164</v>
       </c>
       <c r="H3" t="n">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="I3" t="n">
-        <v>7246</v>
+        <v>7384</v>
       </c>
       <c r="J3" t="n">
-        <v>0.941208942865029</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.941208942865029</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>5.879105713497101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -593,19 +593,19 @@
         <v>278409611.5028775</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I4" t="n">
-        <v>6887</v>
+        <v>7073</v>
       </c>
       <c r="J4" t="n">
-        <v>1.003339625381153</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9443522281395891</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>5.564777186041092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -631,19 +631,19 @@
         <v>422465542.8251474</v>
       </c>
       <c r="H5" t="n">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="I5" t="n">
-        <v>6936</v>
+        <v>7014</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9443522281395891</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>5.564777186041092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -669,19 +669,19 @@
         <v>875852077.1212513</v>
       </c>
       <c r="H6" t="n">
-        <v>61.5</v>
+        <v>246</v>
       </c>
       <c r="I6" t="n">
-        <v>6808</v>
+        <v>6892</v>
       </c>
       <c r="J6" t="n">
-        <v>1.003231492361927</v>
+        <v>0.9910040626813698</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9474038951517911</v>
+        <v>0.9910040626813698</v>
       </c>
       <c r="L6" t="n">
-        <v>5.259610484820887</v>
+        <v>0.8995937318630243</v>
       </c>
     </row>
     <row r="7">
@@ -707,19 +707,19 @@
         <v>280344524.5483946</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I7" t="n">
-        <v>6891.5</v>
+        <v>7076</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9474038951517911</v>
+        <v>0.9910040626813698</v>
       </c>
       <c r="L7" t="n">
-        <v>5.259610484820887</v>
+        <v>0.8995937318630243</v>
       </c>
     </row>
     <row r="8">
@@ -745,19 +745,19 @@
         <v>216761002.6806521</v>
       </c>
       <c r="H8" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I8" t="n">
-        <v>6811</v>
+        <v>6859</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9474038951517911</v>
+        <v>0.9910040626813698</v>
       </c>
       <c r="L8" t="n">
-        <v>5.259610484820887</v>
+        <v>0.8995937318630243</v>
       </c>
     </row>
     <row r="9">
@@ -783,19 +783,19 @@
         <v>286329721.316754</v>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>6719</v>
+        <v>6761</v>
       </c>
       <c r="J9" t="n">
-        <v>1.00461378181277</v>
+        <v>0.9983730217423458</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9517750100125898</v>
+        <v>0.9893917206181402</v>
       </c>
       <c r="L9" t="n">
-        <v>4.82249899874102</v>
+        <v>1.060827938185982</v>
       </c>
     </row>
     <row r="10">
@@ -821,19 +821,19 @@
         <v>143550526.9845373</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="I10" t="n">
-        <v>6767</v>
+        <v>6803</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9915767696172603</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9437579898307193</v>
+        <v>0.9893917206181402</v>
       </c>
       <c r="L10" t="n">
-        <v>5.624201016928065</v>
+        <v>1.060827938185982</v>
       </c>
     </row>
     <row r="11">
@@ -859,19 +859,19 @@
         <v>298079688.606269</v>
       </c>
       <c r="H11" t="n">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I11" t="n">
-        <v>6720.5</v>
+        <v>6752</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9969496317238301</v>
+        <v>0.9922985781990521</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9408791803981579</v>
+        <v>0.9817719976512943</v>
       </c>
       <c r="L11" t="n">
-        <v>5.912081960184212</v>
+        <v>1.82280023487057</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>787118778.3949277</v>
       </c>
       <c r="H12" t="n">
-        <v>36.5</v>
+        <v>146</v>
       </c>
       <c r="I12" t="n">
-        <v>6724</v>
+        <v>6811</v>
       </c>
       <c r="J12" t="n">
-        <v>1.009815585960738</v>
+        <v>0.9969167523124358</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9501144608720243</v>
+        <v>0.9787449514098207</v>
       </c>
       <c r="L12" t="n">
-        <v>4.988553912797567</v>
+        <v>2.125504859017935</v>
       </c>
     </row>
     <row r="13">
@@ -935,19 +935,19 @@
         <v>1006073444.469534</v>
       </c>
       <c r="H13" t="n">
-        <v>33.5</v>
+        <v>134</v>
       </c>
       <c r="I13" t="n">
-        <v>6826.5</v>
+        <v>6936</v>
       </c>
       <c r="J13" t="n">
-        <v>1.015161502966381</v>
+        <v>0.9991349480968859</v>
       </c>
       <c r="K13" t="n">
-        <v>0.964519624088937</v>
+        <v>0.9778982862269402</v>
       </c>
       <c r="L13" t="n">
-        <v>3.548037591106301</v>
+        <v>2.210171377305981</v>
       </c>
     </row>
     <row r="14">
@@ -973,19 +973,19 @@
         <v>2420045373.571012</v>
       </c>
       <c r="H14" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="I14" t="n">
-        <v>7008.5</v>
+        <v>7109</v>
       </c>
       <c r="J14" t="n">
-        <v>1.015909253049868</v>
+        <v>1.00154733436489</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9798644108601315</v>
+        <v>0.9794114218505857</v>
       </c>
       <c r="L14" t="n">
-        <v>2.013558913986846</v>
+        <v>2.058857814941428</v>
       </c>
     </row>
     <row r="15">
@@ -1011,19 +1011,19 @@
         <v>689394818.8241707</v>
       </c>
       <c r="H15" t="n">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="I15" t="n">
-        <v>7190</v>
+        <v>7415</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9791376912378303</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.959422176975706</v>
+        <v>0.9794114218505857</v>
       </c>
       <c r="L15" t="n">
-        <v>4.057782302429402</v>
+        <v>2.058857814941428</v>
       </c>
     </row>
     <row r="16">
@@ -1049,19 +1049,19 @@
         <v>633283409.5946816</v>
       </c>
       <c r="H16" t="n">
-        <v>27.5</v>
+        <v>110</v>
       </c>
       <c r="I16" t="n">
-        <v>7055</v>
+        <v>7190</v>
       </c>
       <c r="J16" t="n">
-        <v>1.029057406094968</v>
+        <v>1.009735744089012</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9873004967886075</v>
+        <v>0.9889467208115789</v>
       </c>
       <c r="L16" t="n">
-        <v>1.269950321139246</v>
+        <v>1.105327918842114</v>
       </c>
     </row>
     <row r="17">
@@ -1087,16 +1087,16 @@
         <v>2499048071.311404</v>
       </c>
       <c r="H17" t="n">
-        <v>123</v>
+        <v>492</v>
       </c>
       <c r="I17" t="n">
-        <v>7282.5</v>
+        <v>7365</v>
       </c>
       <c r="J17" t="n">
-        <v>1.103329900446275</v>
+        <v>1.090970807875085</v>
       </c>
       <c r="K17" t="n">
-        <v>1.089318158832333</v>
+        <v>1.078912002949224</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1125,19 +1125,19 @@
         <v>2065569513.241231</v>
       </c>
       <c r="H18" t="n">
-        <v>99</v>
+        <v>396</v>
       </c>
       <c r="I18" t="n">
-        <v>8138</v>
+        <v>8507</v>
       </c>
       <c r="J18" t="n">
-        <v>0.948021626935365</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1.032697173186464</v>
+        <v>1.078912002949224</v>
       </c>
       <c r="L18" t="n">
-        <v>5.197837306463506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1163,16 +1163,16 @@
         <v>3056911038.709259</v>
       </c>
       <c r="H19" t="n">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="I19" t="n">
-        <v>7814</v>
+        <v>8111</v>
       </c>
       <c r="J19" t="n">
-        <v>1.074993601228564</v>
+        <v>1.035630625077056</v>
       </c>
       <c r="K19" t="n">
-        <v>1.110142853182275</v>
+        <v>1.117354312017443</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1201,16 +1201,16 @@
         <v>20368106663.71307</v>
       </c>
       <c r="H20" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="I20" t="n">
-        <v>8472</v>
+        <v>8688</v>
       </c>
       <c r="J20" t="n">
-        <v>1.173276676109537</v>
+        <v>1.144106813996317</v>
       </c>
       <c r="K20" t="n">
-        <v>1.302504716788458</v>
+        <v>1.278372682027324</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1239,16 +1239,16 @@
         <v>4062298557.692779</v>
       </c>
       <c r="H21" t="n">
-        <v>105</v>
+        <v>420</v>
       </c>
       <c r="I21" t="n">
-        <v>10196</v>
+        <v>10964</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1.302504716788458</v>
+        <v>1.278372682027324</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>8592196460.310247</v>
       </c>
       <c r="H22" t="n">
-        <v>310</v>
+        <v>1240</v>
       </c>
       <c r="I22" t="n">
-        <v>9435</v>
+        <v>9750</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8844727080021197</v>
+        <v>0.8558974358974359</v>
       </c>
       <c r="K22" t="n">
-        <v>1.152029874043422</v>
+        <v>1.094155900668515</v>
       </c>
       <c r="L22" t="n">
-        <v>11.55272919978803</v>
+        <v>14.4102564102564</v>
       </c>
     </row>
     <row r="23">
@@ -1315,19 +1315,19 @@
         <v>6427148251.588828</v>
       </c>
       <c r="H23" t="n">
-        <v>144.5</v>
+        <v>578</v>
       </c>
       <c r="I23" t="n">
-        <v>8665</v>
+        <v>9595</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9769186381996537</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1.125439455715818</v>
+        <v>1.094155900668515</v>
       </c>
       <c r="L23" t="n">
-        <v>13.59421265738093</v>
+        <v>14.4102564102564</v>
       </c>
     </row>
     <row r="24">
@@ -1353,19 +1353,19 @@
         <v>4130306427.462506</v>
       </c>
       <c r="H24" t="n">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="I24" t="n">
-        <v>8604.5</v>
+        <v>9038</v>
       </c>
       <c r="J24" t="n">
-        <v>1.010517752338892</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1.137276549183455</v>
+        <v>1.094155900668515</v>
       </c>
       <c r="L24" t="n">
-        <v>12.68541798546426</v>
+        <v>14.4102564102564</v>
       </c>
     </row>
     <row r="25">
@@ -1391,19 +1391,19 @@
         <v>2313158284.508378</v>
       </c>
       <c r="H25" t="n">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="I25" t="n">
-        <v>8762</v>
+        <v>8948</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9855055923305182</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1.120792399246648</v>
+        <v>1.094155900668515</v>
       </c>
       <c r="L25" t="n">
-        <v>13.95099113267334</v>
+        <v>14.4102564102564</v>
       </c>
     </row>
     <row r="26">
@@ -1429,19 +1429,19 @@
         <v>2452630821.487988</v>
       </c>
       <c r="H26" t="n">
-        <v>70.5</v>
+        <v>282</v>
       </c>
       <c r="I26" t="n">
-        <v>8685</v>
+        <v>8790</v>
       </c>
       <c r="J26" t="n">
-        <v>1.008635578583765</v>
+        <v>0.9965870307167235</v>
       </c>
       <c r="K26" t="n">
-        <v>1.130471090086429</v>
+        <v>1.090421580188417</v>
       </c>
       <c r="L26" t="n">
-        <v>13.20790815454444</v>
+        <v>14.70237157609172</v>
       </c>
     </row>
     <row r="27">
@@ -1467,19 +1467,19 @@
         <v>2852346758.093966</v>
       </c>
       <c r="H27" t="n">
-        <v>82.5</v>
+        <v>330</v>
       </c>
       <c r="I27" t="n">
-        <v>8830.5</v>
+        <v>9042</v>
       </c>
       <c r="J27" t="n">
-        <v>0.94388766208029</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1.067037714271037</v>
+        <v>1.090421580188417</v>
       </c>
       <c r="L27" t="n">
-        <v>18.07801534093516</v>
+        <v>14.70237157609172</v>
       </c>
     </row>
     <row r="28">
@@ -1505,19 +1505,19 @@
         <v>978856712.9020555</v>
       </c>
       <c r="H28" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I28" t="n">
-        <v>8417.5</v>
+        <v>8665</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9907929907929908</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1.057213488211517</v>
+        <v>1.090421580188417</v>
       </c>
       <c r="L28" t="n">
-        <v>18.83227180794764</v>
+        <v>14.70237157609172</v>
       </c>
     </row>
     <row r="29">
@@ -1543,19 +1543,19 @@
         <v>21306685228.78575</v>
       </c>
       <c r="H29" t="n">
-        <v>179</v>
+        <v>716</v>
       </c>
       <c r="I29" t="n">
-        <v>8390</v>
+        <v>8540</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8682955899880811</v>
+        <v>0.8530444964871194</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9179738094899765</v>
+        <v>0.9301781278305175</v>
       </c>
       <c r="L29" t="n">
-        <v>29.52241956148969</v>
+        <v>27.23732750958175</v>
       </c>
     </row>
     <row r="30">
@@ -1581,19 +1581,19 @@
         <v>10136483286.04787</v>
       </c>
       <c r="H30" t="n">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="I30" t="n">
-        <v>7469</v>
+        <v>8006</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9179738094899765</v>
+        <v>0.9301781278305175</v>
       </c>
       <c r="L30" t="n">
-        <v>29.52241956148969</v>
+        <v>27.23732750958175</v>
       </c>
     </row>
     <row r="31">
@@ -1619,19 +1619,19 @@
         <v>6093809272.281581</v>
       </c>
       <c r="H31" t="n">
-        <v>20.5</v>
+        <v>82</v>
       </c>
       <c r="I31" t="n">
-        <v>6753</v>
+        <v>6942</v>
       </c>
       <c r="J31" t="n">
-        <v>1.001036576336443</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9189253594183683</v>
+        <v>0.9301781278305175</v>
       </c>
       <c r="L31" t="n">
-        <v>29.44936416935737</v>
+        <v>27.23732750958175</v>
       </c>
     </row>
     <row r="32">
@@ -1657,19 +1657,19 @@
         <v>3982578146.74519</v>
       </c>
       <c r="H32" t="n">
-        <v>28.5</v>
+        <v>114</v>
       </c>
       <c r="I32" t="n">
-        <v>6780.5</v>
+        <v>6842</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9896025366860851</v>
+        <v>0.9807073954983923</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9093708667055898</v>
+        <v>0.9122325690942373</v>
       </c>
       <c r="L32" t="n">
-        <v>30.18291181717985</v>
+        <v>28.64110897241941</v>
       </c>
     </row>
     <row r="33">
@@ -1695,19 +1695,19 @@
         <v>2756994066.788016</v>
       </c>
       <c r="H33" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="I33" t="n">
-        <v>6733.5</v>
+        <v>6819</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9942823197445608</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9041713748561556</v>
+        <v>0.9122325690942373</v>
       </c>
       <c r="L33" t="n">
-        <v>30.58210360377501</v>
+        <v>28.64110897241941</v>
       </c>
     </row>
     <row r="34">
@@ -1733,19 +1733,19 @@
         <v>4877435053.003571</v>
       </c>
       <c r="H34" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I34" t="n">
-        <v>6707.5</v>
+        <v>6745</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9041713748561556</v>
+        <v>0.9122325690942373</v>
       </c>
       <c r="L34" t="n">
-        <v>30.58210360377501</v>
+        <v>28.64110897241941</v>
       </c>
     </row>
     <row r="35">
@@ -1771,19 +1771,19 @@
         <v>7277602586.186733</v>
       </c>
       <c r="H35" t="n">
-        <v>68.5</v>
+        <v>274</v>
       </c>
       <c r="I35" t="n">
-        <v>6355</v>
+        <v>6505</v>
       </c>
       <c r="J35" t="n">
-        <v>1.040125885129819</v>
+        <v>1.016141429669485</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9404520515813042</v>
+        <v>0.9269573069504856</v>
       </c>
       <c r="L35" t="n">
-        <v>27.79664906702642</v>
+        <v>27.48927445160527</v>
       </c>
     </row>
     <row r="36">
@@ -1809,19 +1809,19 @@
         <v>2916222497.698309</v>
       </c>
       <c r="H36" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I36" t="n">
-        <v>6703.5</v>
+        <v>6909</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9404520515813042</v>
+        <v>0.9269573069504856</v>
       </c>
       <c r="L36" t="n">
-        <v>27.79664906702642</v>
+        <v>27.48927445160527</v>
       </c>
     </row>
     <row r="37">
@@ -1847,19 +1847,19 @@
         <v>2774891506.443617</v>
       </c>
       <c r="H37" t="n">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="I37" t="n">
-        <v>6517</v>
+        <v>6613</v>
       </c>
       <c r="J37" t="n">
-        <v>0.969771367193494</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9120234718419277</v>
+        <v>0.9269573069504856</v>
       </c>
       <c r="L37" t="n">
-        <v>29.97925764977857</v>
+        <v>27.48927445160527</v>
       </c>
     </row>
     <row r="38">
@@ -1885,19 +1885,19 @@
         <v>2421555781.177114</v>
       </c>
       <c r="H38" t="n">
-        <v>30.5</v>
+        <v>122</v>
       </c>
       <c r="I38" t="n">
-        <v>6350</v>
+        <v>6455</v>
       </c>
       <c r="J38" t="n">
-        <v>1.030708661417323</v>
+        <v>1.013942680092951</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9400304918433727</v>
+        <v>0.9398815761411198</v>
       </c>
       <c r="L38" t="n">
-        <v>27.82901438075602</v>
+        <v>26.47828060197622</v>
       </c>
     </row>
     <row r="39">
@@ -1923,19 +1923,19 @@
         <v>3927510371.809959</v>
       </c>
       <c r="H39" t="n">
-        <v>35.5</v>
+        <v>142</v>
       </c>
       <c r="I39" t="n">
-        <v>6575.5</v>
+        <v>6667</v>
       </c>
       <c r="J39" t="n">
-        <v>1.00828834309178</v>
+        <v>0.9944502774861257</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9478217870765054</v>
+        <v>0.9346654941976338</v>
       </c>
       <c r="L39" t="n">
-        <v>27.23083649067179</v>
+        <v>26.88630574337818</v>
       </c>
     </row>
     <row r="40">
@@ -1961,19 +1961,19 @@
         <v>2348329233.420139</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5</v>
+        <v>94</v>
       </c>
       <c r="I40" t="n">
-        <v>6645.5</v>
+        <v>6752</v>
       </c>
       <c r="J40" t="n">
-        <v>0.98788653976375</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9363403855477027</v>
+        <v>0.9346654941976338</v>
       </c>
       <c r="L40" t="n">
-        <v>28.11232285926722</v>
+        <v>26.88630574337818</v>
       </c>
     </row>
     <row r="41">
@@ -1999,19 +1999,19 @@
         <v>2127376670.826746</v>
       </c>
       <c r="H41" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I41" t="n">
-        <v>6588.5</v>
+        <v>6659</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9994687713440085</v>
+        <v>0.9888872203033489</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9358429747031376</v>
+        <v>0.924278762470554</v>
       </c>
       <c r="L41" t="n">
-        <v>28.15051165337705</v>
+        <v>27.69880212046032</v>
       </c>
     </row>
     <row r="42">
@@ -2037,19 +2037,19 @@
         <v>5327232375.669074</v>
       </c>
       <c r="H42" t="n">
-        <v>45.5</v>
+        <v>182</v>
       </c>
       <c r="I42" t="n">
-        <v>6603</v>
+        <v>6657</v>
       </c>
       <c r="J42" t="n">
-        <v>1.048765712554899</v>
+        <v>1.040258374643233</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9814800242040327</v>
+        <v>0.9614887231648771</v>
       </c>
       <c r="L42" t="n">
-        <v>24.64672015744905</v>
+        <v>24.78807340907131</v>
       </c>
     </row>
     <row r="43">
@@ -2075,19 +2075,19 @@
         <v>9237569892.553537</v>
       </c>
       <c r="H43" t="n">
-        <v>59.5</v>
+        <v>238</v>
       </c>
       <c r="I43" t="n">
-        <v>6965.5</v>
+        <v>7102</v>
       </c>
       <c r="J43" t="n">
-        <v>1.007106453233795</v>
+        <v>0.9877499295972966</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9884548660959428</v>
+        <v>0.949710418614702</v>
       </c>
       <c r="L43" t="n">
-        <v>24.11122559823488</v>
+        <v>25.70942480493314</v>
       </c>
     </row>
     <row r="44">
@@ -2113,19 +2113,19 @@
         <v>4939857890.045695</v>
       </c>
       <c r="H44" t="n">
-        <v>38.5</v>
+        <v>154</v>
       </c>
       <c r="I44" t="n">
-        <v>7074.5</v>
+        <v>7253</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9880556929818362</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9766484577016948</v>
+        <v>0.949710418614702</v>
       </c>
       <c r="L44" t="n">
-        <v>25.01766441892173</v>
+        <v>25.70942480493314</v>
       </c>
     </row>
     <row r="45">
@@ -2151,19 +2151,19 @@
         <v>4172967036.197895</v>
       </c>
       <c r="H45" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I45" t="n">
-        <v>7028.5</v>
+        <v>7144</v>
       </c>
       <c r="J45" t="n">
-        <v>1.003058974176567</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="K45" t="n">
-        <v>0.979636000113388</v>
+        <v>0.9372142288960874</v>
       </c>
       <c r="L45" t="n">
-        <v>24.78829539068056</v>
+        <v>26.68693237328928</v>
       </c>
     </row>
     <row r="46">
@@ -2189,19 +2189,19 @@
         <v>8071452073.928939</v>
       </c>
       <c r="H46" t="n">
-        <v>62.5</v>
+        <v>250</v>
       </c>
       <c r="I46" t="n">
-        <v>7073</v>
+        <v>7142</v>
       </c>
       <c r="J46" t="n">
-        <v>1.010886469673406</v>
+        <v>1.00112013441613</v>
       </c>
       <c r="K46" t="n">
-        <v>0.9903007777195991</v>
+        <v>0.9382640348091607</v>
       </c>
       <c r="L46" t="n">
-        <v>23.96950544936603</v>
+        <v>26.60481188308854</v>
       </c>
     </row>
     <row r="47">
@@ -2227,19 +2227,19 @@
         <v>10017753326.303</v>
       </c>
       <c r="H47" t="n">
-        <v>99</v>
+        <v>396</v>
       </c>
       <c r="I47" t="n">
-        <v>7212.5</v>
+        <v>7400</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9462738301559792</v>
+        <v>0.9222972972972973</v>
       </c>
       <c r="K47" t="n">
-        <v>0.93709570993917</v>
+        <v>0.8653583834557461</v>
       </c>
       <c r="L47" t="n">
-        <v>28.0543327129183</v>
+        <v>32.30781636514585</v>
       </c>
     </row>
     <row r="48">
@@ -2265,19 +2265,19 @@
         <v>4354961459.954325</v>
       </c>
       <c r="H48" t="n">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="I48" t="n">
-        <v>6924</v>
+        <v>7221</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>0.93709570993917</v>
+        <v>0.8653583834557461</v>
       </c>
       <c r="L48" t="n">
-        <v>28.0543327129183</v>
+        <v>32.30781636514585</v>
       </c>
     </row>
     <row r="49">
@@ -2303,19 +2303,19 @@
         <v>7646582384.10603</v>
       </c>
       <c r="H49" t="n">
-        <v>140.5</v>
+        <v>562</v>
       </c>
       <c r="I49" t="n">
-        <v>6936</v>
+        <v>7059</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0.93709570993917</v>
+        <v>0.8653583834557461</v>
       </c>
       <c r="L49" t="n">
-        <v>28.0543327129183</v>
+        <v>32.30781636514585</v>
       </c>
     </row>
     <row r="50">
@@ -2341,19 +2341,19 @@
         <v>3385078344.967478</v>
       </c>
       <c r="H50" t="n">
-        <v>64.5</v>
+        <v>258</v>
       </c>
       <c r="I50" t="n">
-        <v>5940.5</v>
+        <v>6362</v>
       </c>
       <c r="J50" t="n">
-        <v>1.050416631596667</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9843409191179903</v>
+        <v>0.8653583834557461</v>
       </c>
       <c r="L50" t="n">
-        <v>24.42707451032912</v>
+        <v>32.30781636514585</v>
       </c>
     </row>
     <row r="51">
@@ -2379,19 +2379,19 @@
         <v>3803278173.441733</v>
       </c>
       <c r="H51" t="n">
-        <v>42.5</v>
+        <v>170</v>
       </c>
       <c r="I51" t="n">
-        <v>6304.5</v>
+        <v>6498</v>
       </c>
       <c r="J51" t="n">
-        <v>1.005630898564517</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9898836429864476</v>
+        <v>0.8653583834557461</v>
       </c>
       <c r="L51" t="n">
-        <v>24.00153103267294</v>
+        <v>32.30781636514585</v>
       </c>
     </row>
     <row r="52">
@@ -2417,19 +2417,19 @@
         <v>2594001910.312719</v>
       </c>
       <c r="H52" t="n">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I52" t="n">
-        <v>6382.5</v>
+        <v>6510</v>
       </c>
       <c r="J52" t="n">
-        <v>1.014492753623188</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1.004229782739875</v>
+        <v>0.8653583834557461</v>
       </c>
       <c r="L52" t="n">
-        <v>22.90010394618993</v>
+        <v>32.30781636514585</v>
       </c>
     </row>
     <row r="53">
@@ -2455,19 +2455,19 @@
         <v>8553400897.050674</v>
       </c>
       <c r="H53" t="n">
-        <v>87</v>
+        <v>348</v>
       </c>
       <c r="I53" t="n">
-        <v>6508</v>
+        <v>6607</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9964658881376767</v>
+        <v>0.9815347358861813</v>
       </c>
       <c r="K53" t="n">
-        <v>1.000680722352195</v>
+        <v>0.8493793123521286</v>
       </c>
       <c r="L53" t="n">
-        <v>23.1725836034176</v>
+        <v>33.55777041440454</v>
       </c>
     </row>
     <row r="54">
@@ -2493,19 +2493,19 @@
         <v>4890089619.669302</v>
       </c>
       <c r="H54" t="n">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="I54" t="n">
-        <v>6572</v>
+        <v>6833</v>
       </c>
       <c r="J54" t="n">
-        <v>1.011107729762629</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>1.011796013394756</v>
+        <v>0.8493793123521286</v>
       </c>
       <c r="L54" t="n">
-        <v>22.31920542372336</v>
+        <v>33.55777041440454</v>
       </c>
     </row>
     <row r="55">
@@ -2531,19 +2531,19 @@
         <v>4813885064.966783</v>
       </c>
       <c r="H55" t="n">
-        <v>59.5</v>
+        <v>238</v>
       </c>
       <c r="I55" t="n">
-        <v>6684</v>
+        <v>6801</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9575104727707959</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0.9688052791332195</v>
+        <v>0.8493793123521286</v>
       </c>
       <c r="L55" t="n">
-        <v>25.61982566005828</v>
+        <v>33.55777041440454</v>
       </c>
     </row>
     <row r="56">
@@ -2569,19 +2569,19 @@
         <v>2510052632.826587</v>
       </c>
       <c r="H56" t="n">
-        <v>23.5</v>
+        <v>94</v>
       </c>
       <c r="I56" t="n">
-        <v>6454.5</v>
+        <v>6633</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0.9688052791332195</v>
+        <v>0.8493793123521286</v>
       </c>
       <c r="L56" t="n">
-        <v>25.61982566005828</v>
+        <v>33.55777041440454</v>
       </c>
     </row>
     <row r="57">
@@ -2607,19 +2607,19 @@
         <v>2563303339.214552</v>
       </c>
       <c r="H57" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I57" t="n">
-        <v>6308.5</v>
+        <v>6379</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9962748672426092</v>
+        <v>0.9852641479855777</v>
       </c>
       <c r="K57" t="n">
-        <v>0.9651963508523871</v>
+        <v>0.8368629845011959</v>
       </c>
       <c r="L57" t="n">
-        <v>25.89690168399244</v>
+        <v>34.53685327708615</v>
       </c>
     </row>
     <row r="58">
@@ -2645,19 +2645,19 @@
         <v>2755808321.68972</v>
       </c>
       <c r="H58" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I58" t="n">
-        <v>6306</v>
+        <v>6369</v>
       </c>
       <c r="J58" t="n">
-        <v>0.99825562955915</v>
+        <v>0.9883812215418433</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9635126908683439</v>
+        <v>0.8271396588844446</v>
       </c>
       <c r="L58" t="n">
-        <v>26.02616493827028</v>
+        <v>35.29745507603349</v>
       </c>
     </row>
     <row r="59">
@@ -2683,19 +2683,19 @@
         <v>4025740864.558126</v>
       </c>
       <c r="H59" t="n">
-        <v>36.5</v>
+        <v>146</v>
       </c>
       <c r="I59" t="n">
-        <v>6314</v>
+        <v>6386</v>
       </c>
       <c r="J59" t="n">
-        <v>1.013620525815648</v>
+        <v>1.002192295646727</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9766362403480205</v>
+        <v>0.8289529935578525</v>
       </c>
       <c r="L59" t="n">
-        <v>25.01860240812951</v>
+        <v>35.15560796846452</v>
       </c>
     </row>
     <row r="60">
@@ -2721,19 +2721,19 @@
         <v>30254036270.32755</v>
       </c>
       <c r="H60" t="n">
-        <v>130.5</v>
+        <v>522</v>
       </c>
       <c r="I60" t="n">
-        <v>6431.5</v>
+        <v>6541</v>
       </c>
       <c r="J60" t="n">
-        <v>1.156806343776724</v>
+        <v>1.137440758293839</v>
       </c>
       <c r="K60" t="n">
-        <v>1.129778998396839</v>
+        <v>0.9428849215823915</v>
       </c>
       <c r="L60" t="n">
-        <v>13.26104360047945</v>
+        <v>26.24334555654731</v>
       </c>
     </row>
     <row r="61">
@@ -2759,19 +2759,19 @@
         <v>132249320680.5893</v>
       </c>
       <c r="H61" t="n">
-        <v>281</v>
+        <v>1124</v>
       </c>
       <c r="I61" t="n">
-        <v>7570.5</v>
+        <v>7962</v>
       </c>
       <c r="J61" t="n">
-        <v>1.061356581467539</v>
+        <v>1.009168550615423</v>
       </c>
       <c r="K61" t="n">
-        <v>1.199098375552289</v>
+        <v>0.9515298097104391</v>
       </c>
       <c r="L61" t="n">
-        <v>7.939037755743006</v>
+        <v>25.56710393705822</v>
       </c>
     </row>
     <row r="62">
@@ -2797,19 +2797,19 @@
         <v>60962274492.13132</v>
       </c>
       <c r="H62" t="n">
-        <v>107.5</v>
+        <v>430</v>
       </c>
       <c r="I62" t="n">
-        <v>8316</v>
+        <v>9159</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9860509860509861</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>1.18237213558547</v>
+        <v>0.9515298097104391</v>
       </c>
       <c r="L62" t="n">
-        <v>9.223197402247795</v>
+        <v>25.56710393705822</v>
       </c>
     </row>
     <row r="63">
@@ -2835,19 +2835,19 @@
         <v>54510861012.93874</v>
       </c>
       <c r="H63" t="n">
-        <v>73</v>
+        <v>292</v>
       </c>
       <c r="I63" t="n">
-        <v>8307.5</v>
+        <v>8630</v>
       </c>
       <c r="J63" t="n">
-        <v>1.029190490520614</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>1.216886158201116</v>
+        <v>0.9515298097104391</v>
       </c>
       <c r="L63" t="n">
-        <v>6.573378006526466</v>
+        <v>25.56710393705822</v>
       </c>
     </row>
     <row r="64">
@@ -2873,19 +2873,19 @@
         <v>43828060423.88295</v>
       </c>
       <c r="H64" t="n">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="I64" t="n">
-        <v>8623</v>
+        <v>8842</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9532645251072712</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>1.160014405707198</v>
+        <v>0.9515298097104391</v>
       </c>
       <c r="L64" t="n">
-        <v>10.93971555301492</v>
+        <v>25.56710393705822</v>
       </c>
     </row>
     <row r="65">
@@ -2911,19 +2911,19 @@
         <v>27941570961.33757</v>
       </c>
       <c r="H65" t="n">
-        <v>93.5</v>
+        <v>374</v>
       </c>
       <c r="I65" t="n">
-        <v>8298</v>
+        <v>8532</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9731260544709569</v>
+        <v>0.9464369432723863</v>
       </c>
       <c r="K65" t="n">
-        <v>1.128840241755318</v>
+        <v>0.9005629645349034</v>
       </c>
       <c r="L65" t="n">
-        <v>13.33311678604428</v>
+        <v>29.55395737127815</v>
       </c>
     </row>
     <row r="66">
@@ -2949,19 +2949,19 @@
         <v>47660114978.93825</v>
       </c>
       <c r="H66" t="n">
-        <v>152</v>
+        <v>608</v>
       </c>
       <c r="I66" t="n">
-        <v>8188.5</v>
+        <v>8469</v>
       </c>
       <c r="J66" t="n">
-        <v>1.077120351712768</v>
+        <v>1.04144527098831</v>
       </c>
       <c r="K66" t="n">
-        <v>1.215896798227014</v>
+        <v>0.9378870406420886</v>
       </c>
       <c r="L66" t="n">
-        <v>6.649336270734631</v>
+        <v>26.6343020444767</v>
       </c>
     </row>
     <row r="67">
@@ -2987,19 +2987,19 @@
         <v>153506296534.8976</v>
       </c>
       <c r="H67" t="n">
-        <v>203.5</v>
+        <v>814</v>
       </c>
       <c r="I67" t="n">
-        <v>8982</v>
+        <v>9438</v>
       </c>
       <c r="J67" t="n">
-        <v>1.117791137831218</v>
+        <v>1.063784700148336</v>
       </c>
       <c r="K67" t="n">
-        <v>1.359118665575509</v>
+        <v>0.9977098843024549</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>21.95469299921023</v>
       </c>
     </row>
     <row r="68">
@@ -3025,19 +3025,19 @@
         <v>46923950116.33292</v>
       </c>
       <c r="H68" t="n">
-        <v>272.5</v>
+        <v>1090</v>
       </c>
       <c r="I68" t="n">
-        <v>10243.5</v>
+        <v>10854</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>1.359118665575509</v>
+        <v>0.9977098843024549</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>21.95469299921023</v>
       </c>
     </row>
     <row r="69">
@@ -3063,19 +3063,19 @@
         <v>23363072522.32721</v>
       </c>
       <c r="H69" t="n">
-        <v>89.5</v>
+        <v>358</v>
       </c>
       <c r="I69" t="n">
-        <v>8477.5</v>
+        <v>9295</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9472132114420525</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>1.287375155950615</v>
+        <v>0.9977098843024549</v>
       </c>
       <c r="L69" t="n">
-        <v>5.278678855794753</v>
+        <v>21.95469299921023</v>
       </c>
     </row>
     <row r="70">
@@ -3101,19 +3101,19 @@
         <v>11690982062.40616</v>
       </c>
       <c r="H70" t="n">
-        <v>70.5</v>
+        <v>282</v>
       </c>
       <c r="I70" t="n">
-        <v>8119.5</v>
+        <v>8388</v>
       </c>
       <c r="J70" t="n">
-        <v>1.03947287394544</v>
+        <v>1.00619933237959</v>
       </c>
       <c r="K70" t="n">
-        <v>1.338191553201944</v>
+        <v>1.003895019493648</v>
       </c>
       <c r="L70" t="n">
-        <v>1.539756086323996</v>
+        <v>21.4708642004452</v>
       </c>
     </row>
     <row r="71">
@@ -3139,19 +3139,19 @@
         <v>17620302252.21719</v>
       </c>
       <c r="H71" t="n">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="I71" t="n">
-        <v>8520.5</v>
+        <v>8732</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9987676779531718</v>
+        <v>0.9745762711864406</v>
       </c>
       <c r="K71" t="n">
-        <v>1.336542470248054</v>
+        <v>0.9783722647607586</v>
       </c>
       <c r="L71" t="n">
-        <v>1.661090815634898</v>
+        <v>23.46736765297626</v>
       </c>
     </row>
     <row r="72">
@@ -3177,19 +3177,19 @@
         <v>17972013655.56232</v>
       </c>
       <c r="H72" t="n">
-        <v>87.5</v>
+        <v>350</v>
       </c>
       <c r="I72" t="n">
-        <v>8587</v>
+        <v>8818</v>
       </c>
       <c r="J72" t="n">
-        <v>0.9840456504017702</v>
+        <v>0.9582671807666138</v>
       </c>
       <c r="K72" t="n">
-        <v>1.315218804424835</v>
+        <v>0.9375420318925392</v>
       </c>
       <c r="L72" t="n">
-        <v>3.230024151870837</v>
+        <v>26.66129016416981</v>
       </c>
     </row>
     <row r="73">
@@ -3215,19 +3215,19 @@
         <v>16886328006.41017</v>
       </c>
       <c r="H73" t="n">
-        <v>69.5</v>
+        <v>278</v>
       </c>
       <c r="I73" t="n">
-        <v>8537.5</v>
+        <v>8800</v>
       </c>
       <c r="J73" t="n">
-        <v>1.009663250366032</v>
+        <v>0.9795454545454545</v>
       </c>
       <c r="K73" t="n">
-        <v>1.327928093018106</v>
+        <v>0.9183650357856462</v>
       </c>
       <c r="L73" t="n">
-        <v>2.294911647335478</v>
+        <v>28.16140013808452</v>
       </c>
     </row>
     <row r="74">
@@ -3253,19 +3253,19 @@
         <v>12392346919.82864</v>
       </c>
       <c r="H74" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="I74" t="n">
-        <v>8674.5</v>
+        <v>8883</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9758487520894576</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>1.295856972436252</v>
+        <v>0.9183650357856462</v>
       </c>
       <c r="L74" t="n">
-        <v>4.654611458262123</v>
+        <v>28.16140013808452</v>
       </c>
     </row>
     <row r="75">
@@ -3291,19 +3291,19 @@
         <v>12833535137.70563</v>
       </c>
       <c r="H75" t="n">
-        <v>45.5</v>
+        <v>182</v>
       </c>
       <c r="I75" t="n">
-        <v>8545</v>
+        <v>8740</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9918080748976009</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>1.285241409174632</v>
+        <v>0.9183650357856462</v>
       </c>
       <c r="L75" t="n">
-        <v>5.435673740055178</v>
+        <v>28.16140013808452</v>
       </c>
     </row>
     <row r="76">
@@ -3329,19 +3329,19 @@
         <v>54850450778.78278</v>
       </c>
       <c r="H76" t="n">
-        <v>115</v>
+        <v>460</v>
       </c>
       <c r="I76" t="n">
-        <v>8520.5</v>
+        <v>8657</v>
       </c>
       <c r="J76" t="n">
-        <v>1.021653658822839</v>
+        <v>1.005544645951253</v>
       </c>
       <c r="K76" t="n">
-        <v>1.313071588153885</v>
+        <v>0.9234570447630878</v>
       </c>
       <c r="L76" t="n">
-        <v>3.388010082410696</v>
+        <v>27.76308053621644</v>
       </c>
     </row>
     <row r="77">
@@ -3367,19 +3367,19 @@
         <v>17905854189.88539</v>
       </c>
       <c r="H77" t="n">
-        <v>73.5</v>
+        <v>294</v>
       </c>
       <c r="I77" t="n">
-        <v>8820</v>
+        <v>9165</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9982993197278912</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>1.310838473208045</v>
+        <v>0.9234570447630878</v>
       </c>
       <c r="L77" t="n">
-        <v>3.552316187712715</v>
+        <v>27.76308053621644</v>
       </c>
     </row>
     <row r="78">
@@ -3405,19 +3405,19 @@
         <v>16399184811.9232</v>
       </c>
       <c r="H78" t="n">
-        <v>116</v>
+        <v>464</v>
       </c>
       <c r="I78" t="n">
-        <v>8878.5</v>
+        <v>9099</v>
       </c>
       <c r="J78" t="n">
-        <v>0.8993636312440164</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>1.17892044923875</v>
+        <v>0.9234570447630878</v>
       </c>
       <c r="L78" t="n">
-        <v>13.25846086150657</v>
+        <v>27.76308053621644</v>
       </c>
     </row>
     <row r="79">
@@ -3443,19 +3443,19 @@
         <v>18714970551.39974</v>
       </c>
       <c r="H79" t="n">
-        <v>111.5</v>
+        <v>446</v>
       </c>
       <c r="I79" t="n">
-        <v>8096</v>
+        <v>8444</v>
       </c>
       <c r="J79" t="n">
-        <v>1.012845849802372</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>1.194064684258615</v>
+        <v>0.9234570447630878</v>
       </c>
       <c r="L79" t="n">
-        <v>12.14419207810695</v>
+        <v>27.76308053621644</v>
       </c>
     </row>
     <row r="80">
@@ -3481,19 +3481,19 @@
         <v>10081538785.07217</v>
       </c>
       <c r="H80" t="n">
-        <v>54.5</v>
+        <v>218</v>
       </c>
       <c r="I80" t="n">
-        <v>8311.5</v>
+        <v>8646</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9919990374781928</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>1.184511017471248</v>
+        <v>0.9234570447630878</v>
       </c>
       <c r="L80" t="n">
-        <v>12.8471231046131</v>
+        <v>27.76308053621644</v>
       </c>
     </row>
     <row r="81">
@@ -3519,19 +3519,19 @@
         <v>16214756437.52715</v>
       </c>
       <c r="H81" t="n">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="I81" t="n">
-        <v>8299.5</v>
+        <v>8463</v>
       </c>
       <c r="J81" t="n">
-        <v>1.025965419603591</v>
+        <v>1.006144393241167</v>
       </c>
       <c r="K81" t="n">
-        <v>1.215267343064965</v>
+        <v>0.9291311279874385</v>
       </c>
       <c r="L81" t="n">
-        <v>10.58416208636431</v>
+        <v>27.31922849650042</v>
       </c>
     </row>
     <row r="82">
@@ -3557,19 +3557,19 @@
         <v>31255306604.32228</v>
       </c>
       <c r="H82" t="n">
-        <v>101</v>
+        <v>404</v>
       </c>
       <c r="I82" t="n">
-        <v>8623</v>
+        <v>8857</v>
       </c>
       <c r="J82" t="n">
-        <v>0.970659863156674</v>
+        <v>0.9450152421813255</v>
       </c>
       <c r="K82" t="n">
-        <v>1.179611232918214</v>
+        <v>0.8780430779332573</v>
       </c>
       <c r="L82" t="n">
-        <v>13.20763500671105</v>
+        <v>31.31556311569476</v>
       </c>
     </row>
     <row r="83">
@@ -3595,19 +3595,19 @@
         <v>9903365707.278353</v>
       </c>
       <c r="H83" t="n">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="I83" t="n">
-        <v>8476</v>
+        <v>8779</v>
       </c>
       <c r="J83" t="n">
-        <v>0.970386974988202</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>1.144679375973609</v>
+        <v>0.8780430779332573</v>
       </c>
       <c r="L83" t="n">
-        <v>15.77781948209041</v>
+        <v>31.31556311569476</v>
       </c>
     </row>
     <row r="84">
@@ -3633,19 +3633,19 @@
         <v>6551428235.170763</v>
       </c>
       <c r="H84" t="n">
-        <v>70.5</v>
+        <v>282</v>
       </c>
       <c r="I84" t="n">
-        <v>8266</v>
+        <v>8434</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>1.144679375973609</v>
+        <v>0.8780430779332573</v>
       </c>
       <c r="L84" t="n">
-        <v>15.77781948209041</v>
+        <v>31.31556311569476</v>
       </c>
     </row>
     <row r="85">
@@ -3671,19 +3671,19 @@
         <v>17227942060.92072</v>
       </c>
       <c r="H85" t="n">
-        <v>148.5</v>
+        <v>594</v>
       </c>
       <c r="I85" t="n">
-        <v>7845.5</v>
+        <v>8057</v>
       </c>
       <c r="J85" t="n">
-        <v>1.066853610349882</v>
+        <v>1.038848206528485</v>
       </c>
       <c r="K85" t="n">
-        <v>1.221205324950495</v>
+        <v>0.9121534767657147</v>
       </c>
       <c r="L85" t="n">
-        <v>10.14726264292866</v>
+        <v>28.64729592632062</v>
       </c>
     </row>
     <row r="86">
@@ -3709,19 +3709,19 @@
         <v>15997049135.60715</v>
       </c>
       <c r="H86" t="n">
-        <v>57.5</v>
+        <v>230</v>
       </c>
       <c r="I86" t="n">
-        <v>8518.5</v>
+        <v>8964</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9813934378118213</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>1.198482892127268</v>
+        <v>0.9121534767657147</v>
       </c>
       <c r="L86" t="n">
-        <v>11.81911318834109</v>
+        <v>28.64729592632062</v>
       </c>
     </row>
     <row r="87">
@@ -3747,19 +3747,19 @@
         <v>6864892153.396865</v>
       </c>
       <c r="H87" t="n">
-        <v>41.5</v>
+        <v>166</v>
       </c>
       <c r="I87" t="n">
-        <v>8417.5</v>
+        <v>8590</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9741609741609741</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>1.167515261709961</v>
+        <v>0.9121534767657147</v>
       </c>
       <c r="L87" t="n">
-        <v>14.09762140117577</v>
+        <v>28.64729592632062</v>
       </c>
     </row>
     <row r="88">
@@ -3785,19 +3785,19 @@
         <v>5922044495.347774</v>
       </c>
       <c r="H88" t="n">
-        <v>38.5</v>
+        <v>154</v>
       </c>
       <c r="I88" t="n">
-        <v>8241.5</v>
+        <v>8366</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9888976521264333</v>
+        <v>0.9741812096581401</v>
       </c>
       <c r="K88" t="n">
-        <v>1.154553101126759</v>
+        <v>0.8886027773895021</v>
       </c>
       <c r="L88" t="n">
-        <v>15.05133949154674</v>
+        <v>30.48953643312371</v>
       </c>
     </row>
     <row r="89">
@@ -3823,19 +3823,19 @@
         <v>10394476973.97019</v>
       </c>
       <c r="H89" t="n">
-        <v>43.5</v>
+        <v>174</v>
       </c>
       <c r="I89" t="n">
-        <v>8148.5</v>
+        <v>8264</v>
       </c>
       <c r="J89" t="n">
-        <v>1.011229060563294</v>
+        <v>0.9970958373668926</v>
       </c>
       <c r="K89" t="n">
-        <v>1.16751764782285</v>
+        <v>0.886022130407732</v>
       </c>
       <c r="L89" t="n">
-        <v>14.09744583792664</v>
+        <v>30.69140612402461</v>
       </c>
     </row>
     <row r="90">
@@ -3861,19 +3861,19 @@
         <v>10247826459.25882</v>
       </c>
       <c r="H90" t="n">
-        <v>49.5</v>
+        <v>198</v>
       </c>
       <c r="I90" t="n">
-        <v>8283.5</v>
+        <v>8414</v>
       </c>
       <c r="J90" t="n">
-        <v>1.021911027947124</v>
+        <v>1.006061326360827</v>
       </c>
       <c r="K90" t="n">
-        <v>1.193099159633057</v>
+        <v>0.8913925997030486</v>
       </c>
       <c r="L90" t="n">
-        <v>12.21523257295213</v>
+        <v>30.2713041169323</v>
       </c>
     </row>
     <row r="91">
@@ -3899,19 +3899,19 @@
         <v>17663682772.1452</v>
       </c>
       <c r="H91" t="n">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="I91" t="n">
-        <v>8514.5</v>
+        <v>8663</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9965353220975982</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>1.188965455339302</v>
+        <v>0.8913925997030486</v>
       </c>
       <c r="L91" t="n">
-        <v>12.5193785168241</v>
+        <v>30.2713041169323</v>
       </c>
     </row>
     <row r="92">
@@ -3937,19 +3937,19 @@
         <v>15555477553.61189</v>
       </c>
       <c r="H92" t="n">
-        <v>69</v>
+        <v>276</v>
       </c>
       <c r="I92" t="n">
-        <v>8533</v>
+        <v>8647</v>
       </c>
       <c r="J92" t="n">
-        <v>0.9680065627563577</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>1.150926363659045</v>
+        <v>0.8913925997030486</v>
       </c>
       <c r="L92" t="n">
-        <v>15.31818429028093</v>
+        <v>30.2713041169323</v>
       </c>
     </row>
     <row r="93">
@@ -3975,19 +3975,19 @@
         <v>22516514446.70794</v>
       </c>
       <c r="H93" t="n">
-        <v>114</v>
+        <v>456</v>
       </c>
       <c r="I93" t="n">
-        <v>8329</v>
+        <v>8536</v>
       </c>
       <c r="J93" t="n">
-        <v>1.076960019209989</v>
+        <v>1.050843486410497</v>
       </c>
       <c r="K93" t="n">
-        <v>1.239501678715529</v>
+        <v>0.936714107232468</v>
       </c>
       <c r="L93" t="n">
-        <v>8.801070126524175</v>
+        <v>26.72605411537989</v>
       </c>
     </row>
     <row r="94">
@@ -4013,19 +4013,19 @@
         <v>23589409806.6064</v>
       </c>
       <c r="H94" t="n">
-        <v>114.5</v>
+        <v>458</v>
       </c>
       <c r="I94" t="n">
-        <v>9084</v>
+        <v>9426</v>
       </c>
       <c r="J94" t="n">
-        <v>1.020475561426684</v>
+        <v>0.9834500318268619</v>
       </c>
       <c r="K94" t="n">
-        <v>1.264881171476547</v>
+        <v>0.9212115185704411</v>
       </c>
       <c r="L94" t="n">
-        <v>6.933720835851955</v>
+        <v>27.93873558769059</v>
       </c>
     </row>
     <row r="95">
@@ -4051,19 +4051,19 @@
         <v>15265288230.28328</v>
       </c>
       <c r="H95" t="n">
-        <v>85.5</v>
+        <v>342</v>
       </c>
       <c r="I95" t="n">
-        <v>9409.5</v>
+        <v>9753</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9522291301344386</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>1.204456697638542</v>
+        <v>0.9212115185704411</v>
       </c>
       <c r="L95" t="n">
-        <v>11.37957794667449</v>
+        <v>27.93873558769059</v>
       </c>
     </row>
     <row r="96">
@@ -4089,19 +4089,19 @@
         <v>13482443103.02369</v>
       </c>
       <c r="H96" t="n">
-        <v>47.5</v>
+        <v>190</v>
       </c>
       <c r="I96" t="n">
-        <v>9050.5</v>
+        <v>9307</v>
       </c>
       <c r="J96" t="n">
-        <v>1.018728247058174</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>1.227014060242788</v>
+        <v>0.9212115185704411</v>
       </c>
       <c r="L96" t="n">
-        <v>9.719872788060204</v>
+        <v>27.93873558769059</v>
       </c>
     </row>
     <row r="97">
@@ -4127,19 +4127,19 @@
         <v>22991829841.54167</v>
       </c>
       <c r="H97" t="n">
-        <v>122</v>
+        <v>488</v>
       </c>
       <c r="I97" t="n">
-        <v>9272.5</v>
+        <v>9415</v>
       </c>
       <c r="J97" t="n">
-        <v>1.078457805338366</v>
+        <v>1.062134891131174</v>
       </c>
       <c r="K97" t="n">
-        <v>1.323282890528755</v>
+        <v>0.9784508959855986</v>
       </c>
       <c r="L97" t="n">
-        <v>2.636692141342885</v>
+        <v>23.46121676865704</v>
       </c>
     </row>
     <row r="98">
@@ -4165,19 +4165,19 @@
         <v>49890968652.19385</v>
       </c>
       <c r="H98" t="n">
-        <v>209.5</v>
+        <v>838</v>
       </c>
       <c r="I98" t="n">
-        <v>10122</v>
+        <v>10488</v>
       </c>
       <c r="J98" t="n">
-        <v>1.109464532701047</v>
+        <v>1.070747520976354</v>
       </c>
       <c r="K98" t="n">
-        <v>1.468135433771776</v>
+        <v>1.047673871273672</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>18.04628759649298</v>
       </c>
     </row>
     <row r="99">
@@ -4203,19 +4203,19 @@
         <v>19396563331.56987</v>
       </c>
       <c r="H99" t="n">
-        <v>158</v>
+        <v>632</v>
       </c>
       <c r="I99" t="n">
-        <v>11469.5</v>
+        <v>12098</v>
       </c>
       <c r="J99" t="n">
-        <v>1.093334495836785</v>
+        <v>1.036534964456935</v>
       </c>
       <c r="K99" t="n">
-        <v>1.605163114302984</v>
+        <v>1.085950598923115</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>15.05211162671698</v>
       </c>
     </row>
     <row r="100">
@@ -4241,19 +4241,19 @@
         <v>20703546545.83523</v>
       </c>
       <c r="H100" t="n">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="I100" t="n">
-        <v>12698</v>
+        <v>13172</v>
       </c>
       <c r="J100" t="n">
-        <v>1.008820286659316</v>
+        <v>0.9725174612815062</v>
       </c>
       <c r="K100" t="n">
-        <v>1.619321113106097</v>
+        <v>1.056105919541839</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>17.38669525799003</v>
       </c>
     </row>
     <row r="101">
@@ -4279,16 +4279,16 @@
         <v>68290066290.19745</v>
       </c>
       <c r="H101" t="n">
-        <v>612</v>
+        <v>2448</v>
       </c>
       <c r="I101" t="n">
-        <v>12935</v>
+        <v>13310</v>
       </c>
       <c r="J101" t="n">
-        <v>1.356010823347507</v>
+        <v>1.317806160781367</v>
       </c>
       <c r="K101" t="n">
-        <v>2.195816955847</v>
+        <v>1.391742887209907</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -4317,19 +4317,19 @@
         <v>76247300116.53128</v>
       </c>
       <c r="H102" t="n">
-        <v>273</v>
+        <v>1092</v>
       </c>
       <c r="I102" t="n">
-        <v>18152</v>
+        <v>19988</v>
       </c>
       <c r="J102" t="n">
-        <v>0.9684883208461877</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>2.126623076453849</v>
+        <v>1.391742887209907</v>
       </c>
       <c r="L102" t="n">
-        <v>3.151167915381229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4355,19 +4355,19 @@
         <v>42316758639.42608</v>
       </c>
       <c r="H103" t="n">
-        <v>388</v>
+        <v>1552</v>
       </c>
       <c r="I103" t="n">
-        <v>17853</v>
+        <v>18672</v>
       </c>
       <c r="J103" t="n">
-        <v>0.9096510390410575</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>1.934484891144933</v>
+        <v>1.391742887209907</v>
       </c>
       <c r="L103" t="n">
-        <v>11.90135926431363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4393,19 +4393,19 @@
         <v>17587221395.21401</v>
       </c>
       <c r="H104" t="n">
-        <v>139</v>
+        <v>556</v>
       </c>
       <c r="I104" t="n">
-        <v>16628</v>
+        <v>17792</v>
       </c>
       <c r="J104" t="n">
-        <v>0.9646379600673562</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>1.86607755917517</v>
+        <v>1.391742887209907</v>
       </c>
       <c r="L104" t="n">
-        <v>15.01670691602061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4431,19 +4431,19 @@
         <v>22017145373.3814</v>
       </c>
       <c r="H105" t="n">
-        <v>189</v>
+        <v>756</v>
       </c>
       <c r="I105" t="n">
-        <v>16199</v>
+        <v>16616</v>
       </c>
       <c r="J105" t="n">
-        <v>1.026606580653127</v>
+        <v>1.000842561386615</v>
       </c>
       <c r="K105" t="n">
-        <v>1.915727502258355</v>
+        <v>1.392915516026766</v>
       </c>
       <c r="L105" t="n">
-        <v>12.75559207441339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4469,19 +4469,19 @@
         <v>16862123237.46849</v>
       </c>
       <c r="H106" t="n">
-        <v>138</v>
+        <v>552</v>
       </c>
       <c r="I106" t="n">
-        <v>16829</v>
+        <v>17396</v>
       </c>
       <c r="J106" t="n">
-        <v>0.9994652088656486</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>1.914702988174314</v>
+        <v>1.392915516026766</v>
       </c>
       <c r="L106" t="n">
-        <v>12.80224961029373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4507,19 +4507,19 @@
         <v>18873775065.57592</v>
       </c>
       <c r="H107" t="n">
-        <v>193</v>
+        <v>772</v>
       </c>
       <c r="I107" t="n">
-        <v>16958</v>
+        <v>17372</v>
       </c>
       <c r="J107" t="n">
-        <v>1.029012855289539</v>
+        <v>1.004489983882109</v>
       </c>
       <c r="K107" t="n">
-        <v>1.970253988892663</v>
+        <v>1.399169684242866</v>
       </c>
       <c r="L107" t="n">
-        <v>10.27239389666386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4545,19 +4545,19 @@
         <v>35285447438.8462</v>
       </c>
       <c r="H108" t="n">
-        <v>315</v>
+        <v>1260</v>
       </c>
       <c r="I108" t="n">
-        <v>17643</v>
+        <v>18222</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9805588618715638</v>
+        <v>0.9494018219734387</v>
       </c>
       <c r="K108" t="n">
-        <v>1.931950008946498</v>
+        <v>1.328374247470178</v>
       </c>
       <c r="L108" t="n">
-        <v>12.01680068085273</v>
+        <v>5.059817802656136</v>
       </c>
     </row>
     <row r="109">
@@ -4583,19 +4583,19 @@
         <v>26105696336.77217</v>
       </c>
       <c r="H109" t="n">
-        <v>291</v>
+        <v>1164</v>
       </c>
       <c r="I109" t="n">
-        <v>17615</v>
+        <v>18560</v>
       </c>
       <c r="J109" t="n">
-        <v>1.013908600624468</v>
+        <v>0.9622844827586207</v>
       </c>
       <c r="K109" t="n">
-        <v>1.958820730047372</v>
+        <v>1.278273925636712</v>
       </c>
       <c r="L109" t="n">
-        <v>10.79307749985977</v>
+        <v>8.640535881219746</v>
       </c>
     </row>
     <row r="110">
@@ -4621,19 +4621,19 @@
         <v>31413667051.41165</v>
       </c>
       <c r="H110" t="n">
-        <v>478</v>
+        <v>1912</v>
       </c>
       <c r="I110" t="n">
-        <v>18151</v>
+        <v>19024</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>1.958820730047372</v>
+        <v>1.278273925636712</v>
       </c>
       <c r="L110" t="n">
-        <v>10.79307749985977</v>
+        <v>8.640535881219746</v>
       </c>
     </row>
     <row r="111">
@@ -4659,19 +4659,19 @@
         <v>27468578396.97977</v>
       </c>
       <c r="H111" t="n">
-        <v>553</v>
+        <v>2212</v>
       </c>
       <c r="I111" t="n">
-        <v>16318</v>
+        <v>17752</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>1.958820730047372</v>
+        <v>1.278273925636712</v>
       </c>
       <c r="L111" t="n">
-        <v>10.79307749985977</v>
+        <v>8.640535881219746</v>
       </c>
     </row>
     <row r="112">
@@ -4697,19 +4697,19 @@
         <v>15702164359.49993</v>
       </c>
       <c r="H112" t="n">
-        <v>206</v>
+        <v>824</v>
       </c>
       <c r="I112" t="n">
-        <v>13363</v>
+        <v>15022</v>
       </c>
       <c r="J112" t="n">
-        <v>1.005762179151388</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>1.970107806019358</v>
+        <v>1.278273925636712</v>
       </c>
       <c r="L112" t="n">
-        <v>10.27905123086996</v>
+        <v>8.640535881219746</v>
       </c>
     </row>
     <row r="113">
@@ -4735,19 +4735,19 @@
         <v>13055146749.2524</v>
       </c>
       <c r="H113" t="n">
-        <v>134</v>
+        <v>536</v>
       </c>
       <c r="I113" t="n">
-        <v>13636</v>
+        <v>14254</v>
       </c>
       <c r="J113" t="n">
-        <v>0.9254913464359049</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>1.823317726016742</v>
+        <v>1.278273925636712</v>
       </c>
       <c r="L113" t="n">
-        <v>16.96403832015099</v>
+        <v>8.640535881219746</v>
       </c>
     </row>
     <row r="114">
@@ -4773,19 +4773,19 @@
         <v>11801568354.71627</v>
       </c>
       <c r="H114" t="n">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="I114" t="n">
-        <v>12754</v>
+        <v>13156</v>
       </c>
       <c r="J114" t="n">
-        <v>0.9769484083424808</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>1.781287350334687</v>
+        <v>1.278273925636712</v>
       </c>
       <c r="L114" t="n">
-        <v>18.87814940168429</v>
+        <v>8.640535881219746</v>
       </c>
     </row>
     <row r="115">
@@ -4811,19 +4811,19 @@
         <v>8257414350.537856</v>
       </c>
       <c r="H115" t="n">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="I115" t="n">
-        <v>12570</v>
+        <v>12900</v>
       </c>
       <c r="J115" t="n">
-        <v>1.025457438345267</v>
+        <v>0.9992248062015504</v>
       </c>
       <c r="K115" t="n">
-        <v>1.826634363231036</v>
+        <v>1.277283015616839</v>
       </c>
       <c r="L115" t="n">
-        <v>16.81299489162374</v>
+        <v>8.71135717123431</v>
       </c>
     </row>
     <row r="116">
@@ -4849,19 +4849,19 @@
         <v>8311384317.385707</v>
       </c>
       <c r="H116" t="n">
-        <v>170</v>
+        <v>680</v>
       </c>
       <c r="I116" t="n">
-        <v>12973</v>
+        <v>13222</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>1.826634363231036</v>
+        <v>1.277283015616839</v>
       </c>
       <c r="L116" t="n">
-        <v>16.81299489162374</v>
+        <v>8.71135717123431</v>
       </c>
     </row>
     <row r="117">
@@ -4887,19 +4887,19 @@
         <v>7781622983.597986</v>
       </c>
       <c r="H117" t="n">
-        <v>104</v>
+        <v>416</v>
       </c>
       <c r="I117" t="n">
-        <v>12060</v>
+        <v>12570</v>
       </c>
       <c r="J117" t="n">
-        <v>1.04726368159204</v>
+        <v>1.004773269689738</v>
       </c>
       <c r="K117" t="n">
-        <v>1.912967828159866</v>
+        <v>1.283379831920499</v>
       </c>
       <c r="L117" t="n">
-        <v>12.88127076958606</v>
+        <v>8.275611859402478</v>
       </c>
     </row>
     <row r="118">
@@ -4925,19 +4925,19 @@
         <v>8904754088.439619</v>
       </c>
       <c r="H118" t="n">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="I118" t="n">
-        <v>12714</v>
+        <v>13026</v>
       </c>
       <c r="J118" t="n">
-        <v>0.9973257826018562</v>
+        <v>0.9734377399048058</v>
       </c>
       <c r="K118" t="n">
-        <v>1.907852136311711</v>
+        <v>1.2492903630241</v>
       </c>
       <c r="L118" t="n">
-        <v>13.11424519099822</v>
+        <v>10.71201891426559</v>
       </c>
     </row>
     <row r="119">
@@ -4963,19 +4963,19 @@
         <v>10336073126.39893</v>
       </c>
       <c r="H119" t="n">
-        <v>86</v>
+        <v>344</v>
       </c>
       <c r="I119" t="n">
-        <v>12764</v>
+        <v>13016</v>
       </c>
       <c r="J119" t="n">
-        <v>1.014572234409276</v>
+        <v>0.9949293177627535</v>
       </c>
       <c r="K119" t="n">
-        <v>1.935653804860284</v>
+        <v>1.242955608571151</v>
       </c>
       <c r="L119" t="n">
-        <v>11.84812560509456</v>
+        <v>11.16476989395662</v>
       </c>
     </row>
     <row r="120">
@@ -5001,19 +5001,19 @@
         <v>12614426982.56509</v>
       </c>
       <c r="H120" t="n">
-        <v>92</v>
+        <v>368</v>
       </c>
       <c r="I120" t="n">
-        <v>13036</v>
+        <v>13294</v>
       </c>
       <c r="J120" t="n">
-        <v>0.9849647131021786</v>
+        <v>0.9658492553031442</v>
       </c>
       <c r="K120" t="n">
-        <v>1.90655069456935</v>
+        <v>1.200507748913312</v>
       </c>
       <c r="L120" t="n">
-        <v>13.17351432720269</v>
+        <v>14.19855915739454</v>
       </c>
     </row>
     <row r="121">
@@ -5039,19 +5039,19 @@
         <v>6901316696.79422</v>
       </c>
       <c r="H121" t="n">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="I121" t="n">
-        <v>12932</v>
+        <v>13208</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>1.90655069456935</v>
+        <v>1.200507748913312</v>
       </c>
       <c r="L121" t="n">
-        <v>13.17351432720269</v>
+        <v>14.19855915739454</v>
       </c>
     </row>
     <row r="122">
@@ -5077,19 +5077,19 @@
         <v>8863484928.318468</v>
       </c>
       <c r="H122" t="n">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="I122" t="n">
-        <v>12822</v>
+        <v>13038</v>
       </c>
       <c r="J122" t="n">
-        <v>1.012322570581812</v>
+        <v>0.9955514649486118</v>
       </c>
       <c r="K122" t="n">
-        <v>1.930044300070984</v>
+        <v>1.195167248112808</v>
       </c>
       <c r="L122" t="n">
-        <v>12.10358882912891</v>
+        <v>14.58024987444249</v>
       </c>
     </row>
     <row r="123">
@@ -5115,19 +5115,19 @@
         <v>39262870299.89312</v>
       </c>
       <c r="H123" t="n">
-        <v>234</v>
+        <v>936</v>
       </c>
       <c r="I123" t="n">
-        <v>13056</v>
+        <v>13344</v>
       </c>
       <c r="J123" t="n">
-        <v>1.015625</v>
+        <v>0.9937050359712231</v>
       </c>
       <c r="K123" t="n">
-        <v>1.960201242259593</v>
+        <v>1.187643713277566</v>
       </c>
       <c r="L123" t="n">
-        <v>10.73020740458405</v>
+        <v>15.11796412882999</v>
       </c>
     </row>
     <row r="124">
@@ -5153,19 +5153,19 @@
         <v>15230248078.72514</v>
       </c>
       <c r="H124" t="n">
-        <v>87</v>
+        <v>348</v>
       </c>
       <c r="I124" t="n">
-        <v>13494</v>
+        <v>14196</v>
       </c>
       <c r="J124" t="n">
-        <v>0.9997035719579073</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>1.959620183643242</v>
+        <v>1.187643713277566</v>
       </c>
       <c r="L124" t="n">
-        <v>10.75666947442114</v>
+        <v>15.11796412882999</v>
       </c>
     </row>
     <row r="125">
@@ -5191,19 +5191,19 @@
         <v>19972105993.19782</v>
       </c>
       <c r="H125" t="n">
-        <v>123</v>
+        <v>492</v>
       </c>
       <c r="I125" t="n">
-        <v>13567</v>
+        <v>13828</v>
       </c>
       <c r="J125" t="n">
-        <v>1.057713569691162</v>
+        <v>1.037749493780735</v>
       </c>
       <c r="K125" t="n">
-        <v>2.072716859680145</v>
+        <v>1.232476662245666</v>
       </c>
       <c r="L125" t="n">
-        <v>5.606118298661698</v>
+        <v>11.91371024361515</v>
       </c>
     </row>
     <row r="126">
@@ -5229,19 +5229,19 @@
         <v>17087897489.10448</v>
       </c>
       <c r="H126" t="n">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="I126" t="n">
-        <v>14493</v>
+        <v>14862</v>
       </c>
       <c r="J126" t="n">
-        <v>0.9514938246049817</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>1.972177292140288</v>
+        <v>1.232476662245666</v>
       </c>
       <c r="L126" t="n">
-        <v>10.18480448068343</v>
+        <v>11.91371024361515</v>
       </c>
     </row>
     <row r="127">
@@ -5267,19 +5267,19 @@
         <v>13413405123.73255</v>
       </c>
       <c r="H127" t="n">
-        <v>86</v>
+        <v>344</v>
       </c>
       <c r="I127" t="n">
-        <v>13915</v>
+        <v>14320</v>
       </c>
       <c r="J127" t="n">
-        <v>1.013295005389867</v>
+        <v>0.9846368715083799</v>
       </c>
       <c r="K127" t="n">
-        <v>1.998397399869067</v>
+        <v>1.213541964920663</v>
       </c>
       <c r="L127" t="n">
-        <v>8.990710972162155</v>
+        <v>13.26699123149257</v>
       </c>
     </row>
     <row r="128">
@@ -5305,19 +5305,19 @@
         <v>11532922678.54634</v>
       </c>
       <c r="H128" t="n">
-        <v>98</v>
+        <v>392</v>
       </c>
       <c r="I128" t="n">
-        <v>14136</v>
+        <v>14394</v>
       </c>
       <c r="J128" t="n">
-        <v>0.9804753820033956</v>
+        <v>0.9629012088370155</v>
       </c>
       <c r="K128" t="n">
-        <v>1.959379454031216</v>
+        <v>1.168521024996553</v>
       </c>
       <c r="L128" t="n">
-        <v>10.76763257457325</v>
+        <v>16.48468101073273</v>
       </c>
     </row>
     <row r="129">
@@ -5343,19 +5343,19 @@
         <v>28138939683.78555</v>
       </c>
       <c r="H129" t="n">
-        <v>265</v>
+        <v>1060</v>
       </c>
       <c r="I129" t="n">
-        <v>13968</v>
+        <v>14262</v>
       </c>
       <c r="J129" t="n">
-        <v>1.138316151202749</v>
+        <v>1.114850652082457</v>
       </c>
       <c r="K129" t="n">
-        <v>2.230393278858557</v>
+        <v>1.302726426689468</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>6.892892165940988</v>
       </c>
     </row>
     <row r="130">
@@ -5381,19 +5381,19 @@
         <v>15763625815.72305</v>
       </c>
       <c r="H130" t="n">
-        <v>163</v>
+        <v>652</v>
       </c>
       <c r="I130" t="n">
-        <v>16175</v>
+        <v>16970</v>
       </c>
       <c r="J130" t="n">
-        <v>0.9149922720247295</v>
+        <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>2.040792613731478</v>
+        <v>1.302726426689468</v>
       </c>
       <c r="L130" t="n">
-        <v>8.500772797527038</v>
+        <v>6.892892165940988</v>
       </c>
     </row>
     <row r="131">
@@ -5419,19 +5419,19 @@
         <v>18505977875.90348</v>
       </c>
       <c r="H131" t="n">
-        <v>188</v>
+        <v>752</v>
       </c>
       <c r="I131" t="n">
-        <v>14963</v>
+        <v>15452</v>
       </c>
       <c r="J131" t="n">
-        <v>0.9396511394773776</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>1.917633104929799</v>
+        <v>1.302726426689468</v>
       </c>
       <c r="L131" t="n">
-        <v>14.02264689789682</v>
+        <v>6.892892165940988</v>
       </c>
     </row>
     <row r="132">
@@ -5457,19 +5457,19 @@
         <v>14998821182.49047</v>
       </c>
       <c r="H132" t="n">
-        <v>143</v>
+        <v>572</v>
       </c>
       <c r="I132" t="n">
-        <v>14258</v>
+        <v>14822</v>
       </c>
       <c r="J132" t="n">
-        <v>1.012764763641465</v>
+        <v>0.9742274996626636</v>
       </c>
       <c r="K132" t="n">
-        <v>1.942111238265275</v>
+        <v>1.269151909418157</v>
       </c>
       <c r="L132" t="n">
-        <v>12.92516630702973</v>
+        <v>9.292495134002689</v>
       </c>
     </row>
     <row r="133">
@@ -5495,19 +5495,19 @@
         <v>11885331148.42978</v>
       </c>
       <c r="H133" t="n">
-        <v>119</v>
+        <v>476</v>
       </c>
       <c r="I133" t="n">
-        <v>14583</v>
+        <v>15012</v>
       </c>
       <c r="J133" t="n">
-        <v>1.003908660769389</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>1.949702292272072</v>
+        <v>1.269151909418157</v>
       </c>
       <c r="L133" t="n">
-        <v>12.58482032057295</v>
+        <v>9.292495134002689</v>
       </c>
     </row>
     <row r="134">
@@ -5533,19 +5533,19 @@
         <v>9101827356.201136</v>
       </c>
       <c r="H134" t="n">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="I134" t="n">
-        <v>14759</v>
+        <v>15116</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>1.949702292272072</v>
+        <v>1.269151909418157</v>
       </c>
       <c r="L134" t="n">
-        <v>12.58482032057295</v>
+        <v>9.292495134002689</v>
       </c>
     </row>
     <row r="135">
@@ -5571,19 +5571,19 @@
         <v>9819556448.024794</v>
       </c>
       <c r="H135" t="n">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="I135" t="n">
-        <v>14349</v>
+        <v>14496</v>
       </c>
       <c r="J135" t="n">
-        <v>1.000766603944526</v>
+        <v>0.9906181015452539</v>
       </c>
       <c r="K135" t="n">
-        <v>1.951196941739979</v>
+        <v>1.257244855080349</v>
       </c>
       <c r="L135" t="n">
-        <v>12.51780749901928</v>
+        <v>10.14350373373887</v>
       </c>
     </row>
     <row r="136">
@@ -5609,19 +5609,19 @@
         <v>17537706256.59712</v>
       </c>
       <c r="H136" t="n">
-        <v>154</v>
+        <v>616</v>
       </c>
       <c r="I136" t="n">
-        <v>14419</v>
+        <v>14596</v>
       </c>
       <c r="J136" t="n">
-        <v>0.9938275885983772</v>
+        <v>0.981775828994245</v>
       </c>
       <c r="K136" t="n">
-        <v>1.939153351489971</v>
+        <v>1.234332609845258</v>
       </c>
       <c r="L136" t="n">
-        <v>13.0577835814513</v>
+        <v>11.78106388767321</v>
       </c>
     </row>
     <row r="137">
@@ -5647,19 +5647,19 @@
         <v>10744671756.32104</v>
       </c>
       <c r="H137" t="n">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="I137" t="n">
-        <v>14484</v>
+        <v>14946</v>
       </c>
       <c r="J137" t="n">
-        <v>0.9714167357083678</v>
+        <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>1.883726018742329</v>
+        <v>1.234332609845258</v>
       </c>
       <c r="L137" t="n">
-        <v>15.54287593144296</v>
+        <v>11.78106388767321</v>
       </c>
     </row>
     <row r="138">
@@ -5685,19 +5685,19 @@
         <v>45270730540.09766</v>
       </c>
       <c r="H138" t="n">
-        <v>228</v>
+        <v>912</v>
       </c>
       <c r="I138" t="n">
-        <v>14137</v>
+        <v>14338</v>
       </c>
       <c r="J138" t="n">
-        <v>0.9853575723279338</v>
+        <v>0.9715441484167945</v>
       </c>
       <c r="K138" t="n">
-        <v>1.856143696758905</v>
+        <v>1.199208624295191</v>
       </c>
       <c r="L138" t="n">
-        <v>16.77953326200753</v>
+        <v>14.29140884051386</v>
       </c>
     </row>
     <row r="139">
@@ -5723,19 +5723,19 @@
         <v>107357541711.8372</v>
       </c>
       <c r="H139" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="I139" t="n">
-        <v>14168</v>
+        <v>14852</v>
       </c>
       <c r="J139" t="n">
-        <v>1.040372670807453</v>
+        <v>0.9924589280904929</v>
       </c>
       <c r="K139" t="n">
-        <v>1.931081175199482</v>
+        <v>1.19016530582488</v>
       </c>
       <c r="L139" t="n">
-        <v>13.41970075395194</v>
+        <v>14.9377434897101</v>
       </c>
     </row>
     <row r="140">
@@ -5761,19 +5761,19 @@
         <v>39296174177.57035</v>
       </c>
       <c r="H140" t="n">
-        <v>155</v>
+        <v>620</v>
       </c>
       <c r="I140" t="n">
-        <v>15120</v>
+        <v>16170</v>
       </c>
       <c r="J140" t="n">
-        <v>0.9252645502645502</v>
+        <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>1.786760955095288</v>
+        <v>1.19016530582488</v>
       </c>
       <c r="L140" t="n">
-        <v>19.89031835633516</v>
+        <v>14.9377434897101</v>
       </c>
     </row>
     <row r="141">
@@ -5799,19 +5799,19 @@
         <v>21029441079.80046</v>
       </c>
       <c r="H141" t="n">
-        <v>136</v>
+        <v>544</v>
       </c>
       <c r="I141" t="n">
-        <v>14125</v>
+        <v>14590</v>
       </c>
       <c r="J141" t="n">
-        <v>0.9699115044247788</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>1.733000006003925</v>
+        <v>1.19016530582488</v>
       </c>
       <c r="L141" t="n">
-        <v>22.30069815800295</v>
+        <v>14.9377434897101</v>
       </c>
     </row>
     <row r="142">
@@ -5837,19 +5837,19 @@
         <v>15805855667.70926</v>
       </c>
       <c r="H142" t="n">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="I142" t="n">
-        <v>13836</v>
+        <v>14244</v>
       </c>
       <c r="J142" t="n">
-        <v>1.026308181555363</v>
+        <v>0.9969109800617804</v>
       </c>
       <c r="K142" t="n">
-        <v>1.778592084797321</v>
+        <v>1.18648886146541</v>
       </c>
       <c r="L142" t="n">
-        <v>20.25657081841877</v>
+        <v>15.20050249606034</v>
       </c>
     </row>
     <row r="143">
@@ -5875,19 +5875,19 @@
         <v>11356798949.78073</v>
       </c>
       <c r="H143" t="n">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="I143" t="n">
-        <v>14274</v>
+        <v>14496</v>
       </c>
       <c r="J143" t="n">
-        <v>0.9843071318481155</v>
+        <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>1.750680873714612</v>
+        <v>1.18648886146541</v>
       </c>
       <c r="L143" t="n">
-        <v>21.50797393854446</v>
+        <v>15.20050249606034</v>
       </c>
     </row>
     <row r="144">
@@ -5913,19 +5913,19 @@
         <v>15145468350.479</v>
       </c>
       <c r="H144" t="n">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="I144" t="n">
-        <v>14105</v>
+        <v>14240</v>
       </c>
       <c r="J144" t="n">
-        <v>1.013115916341723</v>
+        <v>1.003511235955056</v>
       </c>
       <c r="K144" t="n">
-        <v>1.773642657595306</v>
+        <v>1.190654903816061</v>
       </c>
       <c r="L144" t="n">
-        <v>20.4784790912301</v>
+        <v>14.9027514514538</v>
       </c>
     </row>
     <row r="145">
@@ -5951,19 +5951,19 @@
         <v>20383236595.17894</v>
       </c>
       <c r="H145" t="n">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="I145" t="n">
-        <v>14344</v>
+        <v>14476</v>
       </c>
       <c r="J145" t="n">
-        <v>1.058282208588957</v>
+        <v>1.048632218844985</v>
       </c>
       <c r="K145" t="n">
-        <v>1.877014468927548</v>
+        <v>1.248559093667298</v>
       </c>
       <c r="L145" t="n">
-        <v>15.84378922231405</v>
+        <v>10.76428343693484</v>
       </c>
     </row>
     <row r="146">
@@ -5989,19 +5989,19 @@
         <v>25794050827.62638</v>
       </c>
       <c r="H146" t="n">
-        <v>127</v>
+        <v>508</v>
       </c>
       <c r="I146" t="n">
-        <v>15305</v>
+        <v>15710</v>
       </c>
       <c r="J146" t="n">
-        <v>1.041489709245345</v>
+        <v>1.014640356460853</v>
       </c>
       <c r="K146" t="n">
-        <v>1.954891253492657</v>
+        <v>1.266838443861027</v>
       </c>
       <c r="L146" t="n">
-        <v>12.35217250595793</v>
+        <v>9.457840737411921</v>
       </c>
     </row>
     <row r="147">
@@ -6027,19 +6027,19 @@
         <v>46559053494.91222</v>
       </c>
       <c r="H147" t="n">
-        <v>245</v>
+        <v>980</v>
       </c>
       <c r="I147" t="n">
-        <v>16057</v>
+        <v>16438</v>
       </c>
       <c r="J147" t="n">
-        <v>1.083016752818086</v>
+        <v>1.05791458814941</v>
       </c>
       <c r="K147" t="n">
-        <v>2.117179977470094</v>
+        <v>1.340206870589077</v>
       </c>
       <c r="L147" t="n">
-        <v>5.075934475842842</v>
+        <v>4.214128873560863</v>
       </c>
     </row>
     <row r="148">
@@ -6065,19 +6065,19 @@
         <v>47411001685.71288</v>
       </c>
       <c r="H148" t="n">
-        <v>188</v>
+        <v>752</v>
       </c>
       <c r="I148" t="n">
-        <v>17645</v>
+        <v>18380</v>
       </c>
       <c r="J148" t="n">
-        <v>1.005383961462171</v>
+        <v>0.9651795429815017</v>
       </c>
       <c r="K148" t="n">
-        <v>2.128578792877273</v>
+        <v>1.293540254855834</v>
       </c>
       <c r="L148" t="n">
-        <v>4.564866965228211</v>
+        <v>7.54943668209846</v>
       </c>
     </row>
     <row r="149">
@@ -6103,19 +6103,19 @@
         <v>48589405870.49152</v>
       </c>
       <c r="H149" t="n">
-        <v>230</v>
+        <v>920</v>
       </c>
       <c r="I149" t="n">
-        <v>17928</v>
+        <v>18492</v>
       </c>
       <c r="J149" t="n">
-        <v>1.06760374832664</v>
+        <v>1.035042180402336</v>
       </c>
       <c r="K149" t="n">
-        <v>2.272478697884371</v>
+        <v>1.338868725824176</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>4.309767364014944</v>
       </c>
     </row>
     <row r="150">
@@ -6141,19 +6141,19 @@
         <v>55842102268.89755</v>
       </c>
       <c r="H150" t="n">
-        <v>279</v>
+        <v>1116</v>
       </c>
       <c r="I150" t="n">
-        <v>19370</v>
+        <v>20060</v>
       </c>
       <c r="J150" t="n">
-        <v>0.8993288590604027</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>2.043705674607421</v>
+        <v>1.338868725824176</v>
       </c>
       <c r="L150" t="n">
-        <v>10.06711409395973</v>
+        <v>4.309767364014944</v>
       </c>
     </row>
     <row r="151">
@@ -6179,19 +6179,19 @@
         <v>27533695222.5595</v>
       </c>
       <c r="H151" t="n">
-        <v>152</v>
+        <v>608</v>
       </c>
       <c r="I151" t="n">
-        <v>17679</v>
+        <v>18516</v>
       </c>
       <c r="J151" t="n">
-        <v>1.04870184965213</v>
+        <v>1.001296176279974</v>
       </c>
       <c r="K151" t="n">
-        <v>2.143237921105356</v>
+        <v>1.340604135708588</v>
       </c>
       <c r="L151" t="n">
-        <v>5.687216205781623</v>
+        <v>4.185735954246976</v>
       </c>
     </row>
     <row r="152">
@@ -6217,16 +6217,16 @@
         <v>100265702796.2795</v>
       </c>
       <c r="H152" t="n">
-        <v>366</v>
+        <v>1464</v>
       </c>
       <c r="I152" t="n">
-        <v>18692</v>
+        <v>19148</v>
       </c>
       <c r="J152" t="n">
-        <v>1.172694200727584</v>
+        <v>1.144767077501567</v>
       </c>
       <c r="K152" t="n">
-        <v>2.513362680859694</v>
+        <v>1.534679478521635</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
@@ -6255,16 +6255,16 @@
         <v>256626516254.8015</v>
       </c>
       <c r="H153" t="n">
-        <v>514</v>
+        <v>2056</v>
       </c>
       <c r="I153" t="n">
-        <v>22286</v>
+        <v>23384</v>
       </c>
       <c r="J153" t="n">
-        <v>1.079152831373957</v>
+        <v>1.028481012658228</v>
       </c>
       <c r="K153" t="n">
-        <v>2.712302453319377</v>
+        <v>1.578388704175732</v>
       </c>
       <c r="L153" t="n">
         <v>0</v>
@@ -6293,19 +6293,19 @@
         <v>843620211482.4438</v>
       </c>
       <c r="H154" t="n">
-        <v>1255</v>
+        <v>5020</v>
       </c>
       <c r="I154" t="n">
-        <v>24594</v>
+        <v>26136</v>
       </c>
       <c r="J154" t="n">
-        <v>1.020574123770025</v>
+        <v>0.9603611876339149</v>
       </c>
       <c r="K154" t="n">
-        <v>2.768105699695713</v>
+        <v>1.515823250490162</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>3.963881236608507</v>
       </c>
     </row>
     <row r="155">
@@ -6331,19 +6331,19 @@
         <v>223674682366.1519</v>
       </c>
       <c r="H155" t="n">
-        <v>347</v>
+        <v>1388</v>
       </c>
       <c r="I155" t="n">
-        <v>26405</v>
+        <v>30170</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>2.768105699695713</v>
+        <v>1.515823250490162</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>3.963881236608507</v>
       </c>
     </row>
     <row r="156">
@@ -6369,19 +6369,19 @@
         <v>100580876983.963</v>
       </c>
       <c r="H156" t="n">
-        <v>216</v>
+        <v>864</v>
       </c>
       <c r="I156" t="n">
-        <v>26117</v>
+        <v>27158</v>
       </c>
       <c r="J156" t="n">
-        <v>0.9457441513190642</v>
+        <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>2.617919775720186</v>
+        <v>1.515823250490162</v>
       </c>
       <c r="L156" t="n">
-        <v>5.425584868093574</v>
+        <v>3.963881236608507</v>
       </c>
     </row>
     <row r="157">
@@ -6407,16 +6407,16 @@
         <v>189144181315.6547</v>
       </c>
       <c r="H157" t="n">
-        <v>377</v>
+        <v>1508</v>
       </c>
       <c r="I157" t="n">
-        <v>24916</v>
+        <v>25564</v>
       </c>
       <c r="J157" t="n">
-        <v>1.076015411783593</v>
+        <v>1.048740416210296</v>
       </c>
       <c r="K157" t="n">
-        <v>2.816922025487968</v>
+        <v>1.589705106620296</v>
       </c>
       <c r="L157" t="n">
         <v>0</v>
@@ -6445,19 +6445,19 @@
         <v>138060238419.8624</v>
       </c>
       <c r="H158" t="n">
-        <v>262</v>
+        <v>1048</v>
       </c>
       <c r="I158" t="n">
-        <v>27187</v>
+        <v>28318</v>
       </c>
       <c r="J158" t="n">
-        <v>0.9865009011659984</v>
+        <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>2.77889611665823</v>
+        <v>1.589705106620296</v>
       </c>
       <c r="L158" t="n">
-        <v>1.349909883400154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -6483,19 +6483,19 @@
         <v>62603093382.81481</v>
       </c>
       <c r="H159" t="n">
-        <v>188</v>
+        <v>752</v>
       </c>
       <c r="I159" t="n">
-        <v>27032</v>
+        <v>27818</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
       </c>
       <c r="K159" t="n">
-        <v>2.77889611665823</v>
+        <v>1.589705106620296</v>
       </c>
       <c r="L159" t="n">
-        <v>1.349909883400154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6521,16 +6521,16 @@
         <v>103565911617.562</v>
       </c>
       <c r="H160" t="n">
-        <v>320</v>
+        <v>1280</v>
       </c>
       <c r="I160" t="n">
-        <v>25798</v>
+        <v>26362</v>
       </c>
       <c r="J160" t="n">
-        <v>1.043104116598186</v>
+        <v>1.020787497154996</v>
       </c>
       <c r="K160" t="n">
-        <v>2.898677978884912</v>
+        <v>1.622751097001447</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -6559,19 +6559,19 @@
         <v>239648671011.3596</v>
       </c>
       <c r="H161" t="n">
-        <v>469</v>
+        <v>1876</v>
       </c>
       <c r="I161" t="n">
-        <v>27260</v>
+        <v>28220</v>
       </c>
       <c r="J161" t="n">
-        <v>1.028613352898019</v>
+        <v>0.9936215450035436</v>
       </c>
       <c r="K161" t="n">
-        <v>2.981618874832463</v>
+        <v>1.612400452158773</v>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>0.6378454996456413</v>
       </c>
     </row>
     <row r="162">
@@ -6597,16 +6597,16 @@
         <v>699368847516.0066</v>
       </c>
       <c r="H162" t="n">
-        <v>1111</v>
+        <v>4444</v>
       </c>
       <c r="I162" t="n">
-        <v>28509</v>
+        <v>29916</v>
       </c>
       <c r="J162" t="n">
-        <v>1.271177522887509</v>
+        <v>1.211391897312475</v>
       </c>
       <c r="K162" t="n">
-        <v>3.790166895504172</v>
+        <v>1.953248842968109</v>
       </c>
       <c r="L162" t="n">
         <v>0</v>
@@ -6635,16 +6635,16 @@
         <v>2142299143743.21</v>
       </c>
       <c r="H163" t="n">
-        <v>2383</v>
+        <v>9532</v>
       </c>
       <c r="I163" t="n">
-        <v>37341</v>
+        <v>40674</v>
       </c>
       <c r="J163" t="n">
-        <v>1.315176347714309</v>
+        <v>1.207405222009146</v>
       </c>
       <c r="K163" t="n">
-        <v>4.984737854856856</v>
+        <v>2.358362852883016</v>
       </c>
       <c r="L163" t="n">
         <v>0</v>
@@ -6673,19 +6673,19 @@
         <v>1755114296732.681</v>
       </c>
       <c r="H164" t="n">
-        <v>1377</v>
+        <v>5508</v>
       </c>
       <c r="I164" t="n">
-        <v>51493</v>
+        <v>58642</v>
       </c>
       <c r="J164" t="n">
-        <v>0.9515856524187754</v>
+        <v>0.8355785955458545</v>
       </c>
       <c r="K164" t="n">
-        <v>4.743405023750529</v>
+        <v>1.970597520399505</v>
       </c>
       <c r="L164" t="n">
-        <v>4.841434758122458</v>
+        <v>16.44214044541456</v>
       </c>
     </row>
     <row r="165">
@@ -6711,19 +6711,19 @@
         <v>1390899133319.335</v>
       </c>
       <c r="H165" t="n">
-        <v>1261</v>
+        <v>5044</v>
       </c>
       <c r="I165" t="n">
-        <v>50477</v>
+        <v>54608</v>
       </c>
       <c r="J165" t="n">
-        <v>1.00402163361531</v>
+        <v>0.9280691473776737</v>
       </c>
       <c r="K165" t="n">
-        <v>4.762481260845075</v>
+        <v>1.828850760581727</v>
       </c>
       <c r="L165" t="n">
-        <v>4.458741873361046</v>
+        <v>22.45252852647249</v>
       </c>
     </row>
     <row r="166">
@@ -6749,19 +6749,19 @@
         <v>471689855418.4927</v>
       </c>
       <c r="H166" t="n">
-        <v>944</v>
+        <v>3776</v>
       </c>
       <c r="I166" t="n">
-        <v>51951</v>
+        <v>55734</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>4.762481260845075</v>
+        <v>1.828850760581727</v>
       </c>
       <c r="L166" t="n">
-        <v>4.458741873361046</v>
+        <v>22.45252852647249</v>
       </c>
     </row>
     <row r="167">
@@ -6787,19 +6787,19 @@
         <v>600115294372.4969</v>
       </c>
       <c r="H167" t="n">
-        <v>886</v>
+        <v>3544</v>
       </c>
       <c r="I167" t="n">
-        <v>44294</v>
+        <v>47126</v>
       </c>
       <c r="J167" t="n">
-        <v>0.9716891678331151</v>
+        <v>1</v>
       </c>
       <c r="K167" t="n">
-        <v>4.627651453171356</v>
+        <v>1.828850760581727</v>
       </c>
       <c r="L167" t="n">
-        <v>7.16359439719734</v>
+        <v>22.45252852647249</v>
       </c>
     </row>
     <row r="168">
@@ -6825,19 +6825,19 @@
         <v>243702417009.5829</v>
       </c>
       <c r="H168" t="n">
-        <v>441</v>
+        <v>1764</v>
       </c>
       <c r="I168" t="n">
-        <v>43916</v>
+        <v>46574</v>
       </c>
       <c r="J168" t="n">
-        <v>0.9242645049640222</v>
+        <v>1</v>
       </c>
       <c r="K168" t="n">
-        <v>4.277173979511462</v>
+        <v>1.828850760581727</v>
       </c>
       <c r="L168" t="n">
-        <v>14.19460553288641</v>
+        <v>22.45252852647249</v>
       </c>
     </row>
     <row r="169">
@@ -6863,19 +6863,19 @@
         <v>1518301652422.152</v>
       </c>
       <c r="H169" t="n">
-        <v>1109</v>
+        <v>4436</v>
       </c>
       <c r="I169" t="n">
-        <v>41041</v>
+        <v>42364</v>
       </c>
       <c r="J169" t="n">
-        <v>0.9626958407446212</v>
+        <v>0.9326314795581154</v>
       </c>
       <c r="K169" t="n">
-        <v>4.117617600216803</v>
+        <v>1.70564379073232</v>
       </c>
       <c r="L169" t="n">
-        <v>17.39550363305822</v>
+        <v>27.67678694365329</v>
       </c>
     </row>
     <row r="170">
@@ -6901,19 +6901,19 @@
         <v>1254722860428.376</v>
       </c>
       <c r="H170" t="n">
-        <v>1348</v>
+        <v>5392</v>
       </c>
       <c r="I170" t="n">
-        <v>40609</v>
+        <v>43936</v>
       </c>
       <c r="J170" t="n">
-        <v>0.9702282745204265</v>
+        <v>1</v>
       </c>
       <c r="K170" t="n">
-        <v>3.995029019393288</v>
+        <v>1.70564379073232</v>
       </c>
       <c r="L170" t="n">
-        <v>19.85478202227324</v>
+        <v>27.67678694365329</v>
       </c>
     </row>
     <row r="171">
@@ -6939,19 +6939,19 @@
         <v>425719451504.1687</v>
       </c>
       <c r="H171" t="n">
-        <v>467</v>
+        <v>1868</v>
       </c>
       <c r="I171" t="n">
-        <v>40758</v>
+        <v>44802</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
       </c>
       <c r="K171" t="n">
-        <v>3.995029019393288</v>
+        <v>1.70564379073232</v>
       </c>
       <c r="L171" t="n">
-        <v>19.85478202227324</v>
+        <v>27.67678694365329</v>
       </c>
     </row>
     <row r="172">
@@ -6977,19 +6977,19 @@
         <v>428773419466.1321</v>
       </c>
       <c r="H172" t="n">
-        <v>550</v>
+        <v>2200</v>
       </c>
       <c r="I172" t="n">
-        <v>36747</v>
+        <v>38148</v>
       </c>
       <c r="J172" t="n">
-        <v>0.9823931205268457</v>
+        <v>0.9463143546188529</v>
       </c>
       <c r="K172" t="n">
-        <v>3.924689024957077</v>
+        <v>1.61407520303651</v>
       </c>
       <c r="L172" t="n">
-        <v>21.26588921555675</v>
+        <v>31.55950531262147</v>
       </c>
     </row>
     <row r="173">
@@ -7015,19 +7015,19 @@
         <v>346485908968.765</v>
       </c>
       <c r="H173" t="n">
-        <v>423</v>
+        <v>1692</v>
       </c>
       <c r="I173" t="n">
-        <v>36560</v>
+        <v>38210</v>
       </c>
       <c r="J173" t="n">
-        <v>1.068927789934355</v>
+        <v>1.022768908662654</v>
       </c>
       <c r="K173" t="n">
-        <v>4.195209165626985</v>
+        <v>1.650825933909102</v>
       </c>
       <c r="L173" t="n">
-        <v>15.83892096673845</v>
+        <v>30.00118994025771</v>
       </c>
     </row>
     <row r="174">
@@ -7053,19 +7053,19 @@
         <v>373886362598.6666</v>
       </c>
       <c r="H174" t="n">
-        <v>306</v>
+        <v>1224</v>
       </c>
       <c r="I174" t="n">
-        <v>39503</v>
+        <v>40772</v>
       </c>
       <c r="J174" t="n">
-        <v>1.009543578968686</v>
+        <v>1</v>
       </c>
       <c r="K174" t="n">
-        <v>4.235246475589301</v>
+        <v>1.650825933909102</v>
       </c>
       <c r="L174" t="n">
-        <v>15.0357230628947</v>
+        <v>30.00118994025771</v>
       </c>
     </row>
     <row r="175">
@@ -7091,19 +7091,19 @@
         <v>693739153908.5781</v>
       </c>
       <c r="H175" t="n">
-        <v>608</v>
+        <v>2432</v>
       </c>
       <c r="I175" t="n">
-        <v>40186</v>
+        <v>41104</v>
       </c>
       <c r="J175" t="n">
-        <v>1.024983825212761</v>
+        <v>1.002092253795251</v>
       </c>
       <c r="K175" t="n">
-        <v>4.341059133268385</v>
+        <v>1.654279880734622</v>
       </c>
       <c r="L175" t="n">
-        <v>12.91299041856947</v>
+        <v>29.85473466424716</v>
       </c>
     </row>
     <row r="176">
@@ -7129,19 +7129,19 @@
         <v>273053872547.127</v>
       </c>
       <c r="H176" t="n">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="I176" t="n">
-        <v>41788</v>
+        <v>43612</v>
       </c>
       <c r="J176" t="n">
-        <v>0.984493155929932</v>
+        <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>4.273743006189848</v>
+        <v>1.654279880734622</v>
       </c>
       <c r="L176" t="n">
-        <v>14.26343509667722</v>
+        <v>29.85473466424716</v>
       </c>
     </row>
     <row r="177">
@@ -7167,19 +7167,19 @@
         <v>265809198609.7595</v>
       </c>
       <c r="H177" t="n">
-        <v>287</v>
+        <v>1148</v>
       </c>
       <c r="I177" t="n">
-        <v>41418</v>
+        <v>42282</v>
       </c>
       <c r="J177" t="n">
-        <v>1.032159930465015</v>
+        <v>1.011068539804172</v>
       </c>
       <c r="K177" t="n">
-        <v>4.411186284094259</v>
+        <v>1.672590343441774</v>
       </c>
       <c r="L177" t="n">
-        <v>11.50615313107709</v>
+        <v>29.07832900280417</v>
       </c>
     </row>
     <row r="178">
@@ -7205,19 +7205,19 @@
         <v>1370427771537.811</v>
       </c>
       <c r="H178" t="n">
-        <v>1238</v>
+        <v>4952</v>
       </c>
       <c r="I178" t="n">
-        <v>43017</v>
+        <v>43878</v>
       </c>
       <c r="J178" t="n">
-        <v>1.241369691052375</v>
+        <v>1.217010802680159</v>
       </c>
       <c r="K178" t="n">
-        <v>5.475912954660562</v>
+        <v>2.035560516427156</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>13.68756025228457</v>
       </c>
     </row>
     <row r="179">
@@ -7243,19 +7243,19 @@
         <v>1353310909227.229</v>
       </c>
       <c r="H179" t="n">
-        <v>841</v>
+        <v>3364</v>
       </c>
       <c r="I179" t="n">
-        <v>54458</v>
+        <v>58172</v>
       </c>
       <c r="J179" t="n">
-        <v>0.9985677035513607</v>
+        <v>0.9348139998624768</v>
       </c>
       <c r="K179" t="n">
-        <v>5.468069823982544</v>
+        <v>1.902870468323399</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1432296448639254</v>
+        <v>19.31392296154912</v>
       </c>
     </row>
     <row r="180">
@@ -7281,19 +7281,19 @@
         <v>2227766312315.034</v>
       </c>
       <c r="H180" t="n">
-        <v>1037</v>
+        <v>4148</v>
       </c>
       <c r="I180" t="n">
-        <v>55151</v>
+        <v>57674</v>
       </c>
       <c r="J180" t="n">
-        <v>1.155010788562311</v>
+        <v>1.104483822866456</v>
       </c>
       <c r="K180" t="n">
-        <v>6.315679639311853</v>
+        <v>2.101689649273511</v>
       </c>
       <c r="L180" t="n">
-        <v>0</v>
+        <v>10.88353318047439</v>
       </c>
     </row>
     <row r="181">
@@ -7319,16 +7319,16 @@
         <v>5215281148964.419</v>
       </c>
       <c r="H181" t="n">
-        <v>2809</v>
+        <v>11236</v>
       </c>
       <c r="I181" t="n">
-        <v>64747</v>
+        <v>67858</v>
       </c>
       <c r="J181" t="n">
-        <v>1.328246868580784</v>
+        <v>1.26735241239058</v>
       </c>
       <c r="K181" t="n">
-        <v>8.388781703875383</v>
+        <v>2.663581447103097</v>
       </c>
       <c r="L181" t="n">
         <v>0</v>
@@ -7357,16 +7357,16 @@
         <v>5654474066988.113</v>
       </c>
       <c r="H182" t="n">
-        <v>3555</v>
+        <v>14220</v>
       </c>
       <c r="I182" t="n">
-        <v>88809</v>
+        <v>97236</v>
       </c>
       <c r="J182" t="n">
-        <v>1.26113344368251</v>
+        <v>1.151836768275124</v>
       </c>
       <c r="K182" t="n">
-        <v>10.57937315850919</v>
+        <v>3.068011046068811</v>
       </c>
       <c r="L182" t="n">
         <v>0</v>
@@ -7395,16 +7395,16 @@
         <v>10052836907616.15</v>
       </c>
       <c r="H183" t="n">
-        <v>10205</v>
+        <v>40820</v>
       </c>
       <c r="I183" t="n">
-        <v>115405</v>
+        <v>126070</v>
       </c>
       <c r="J183" t="n">
-        <v>1.377756596334648</v>
+        <v>1.261204092964226</v>
       </c>
       <c r="K183" t="n">
-        <v>14.57580115422176</v>
+        <v>3.869388088561442</v>
       </c>
       <c r="L183" t="n">
         <v>0</v>
@@ -7433,19 +7433,19 @@
         <v>6839591549309.72</v>
       </c>
       <c r="H184" t="n">
-        <v>5250</v>
+        <v>21000</v>
       </c>
       <c r="I184" t="n">
-        <v>169205</v>
+        <v>199820</v>
       </c>
       <c r="J184" t="n">
-        <v>0.8684731538666115</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>12.65869199853956</v>
+        <v>3.869388088561442</v>
       </c>
       <c r="L184" t="n">
-        <v>13.15268461333884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -7471,19 +7471,19 @@
         <v>3643789747458.446</v>
       </c>
       <c r="H185" t="n">
-        <v>2525</v>
+        <v>10100</v>
       </c>
       <c r="I185" t="n">
-        <v>151750</v>
+        <v>167500</v>
       </c>
       <c r="J185" t="n">
-        <v>1.033937397034596</v>
+        <v>1</v>
       </c>
       <c r="K185" t="n">
-        <v>13.08829505483267</v>
+        <v>3.869388088561442</v>
       </c>
       <c r="L185" t="n">
-        <v>10.20531278967291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -7509,19 +7509,19 @@
         <v>2120854020422.121</v>
       </c>
       <c r="H186" t="n">
-        <v>1730</v>
+        <v>6920</v>
       </c>
       <c r="I186" t="n">
-        <v>159325</v>
+        <v>166900</v>
       </c>
       <c r="J186" t="n">
         <v>1</v>
       </c>
       <c r="K186" t="n">
-        <v>13.08829505483267</v>
+        <v>3.869388088561442</v>
       </c>
       <c r="L186" t="n">
-        <v>10.20531278967291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -7547,19 +7547,19 @@
         <v>2309884954417.38</v>
       </c>
       <c r="H187" t="n">
-        <v>2080</v>
+        <v>8320</v>
       </c>
       <c r="I187" t="n">
-        <v>146680</v>
+        <v>151870</v>
       </c>
       <c r="J187" t="n">
-        <v>0.9415053176983911</v>
+        <v>0.9093303483242247</v>
       </c>
       <c r="K187" t="n">
-        <v>12.32269939373051</v>
+        <v>3.518552018373181</v>
       </c>
       <c r="L187" t="n">
-        <v>15.45782449041334</v>
+        <v>9.066965167577539</v>
       </c>
     </row>
     <row r="188">
@@ -7585,19 +7585,19 @@
         <v>1906523692310.616</v>
       </c>
       <c r="H188" t="n">
-        <v>1990</v>
+        <v>7960</v>
       </c>
       <c r="I188" t="n">
-        <v>140230</v>
+        <v>146470</v>
       </c>
       <c r="J188" t="n">
-        <v>0.9762532981530343</v>
+        <v>1</v>
       </c>
       <c r="K188" t="n">
-        <v>12.03007592527781</v>
+        <v>3.518552018373181</v>
       </c>
       <c r="L188" t="n">
-        <v>17.46542232573334</v>
+        <v>9.066965167577539</v>
       </c>
     </row>
     <row r="189">
@@ -7623,19 +7623,19 @@
         <v>1468812168670.987</v>
       </c>
       <c r="H189" t="n">
-        <v>3730</v>
+        <v>14920</v>
       </c>
       <c r="I189" t="n">
-        <v>138890</v>
+        <v>144860</v>
       </c>
       <c r="J189" t="n">
-        <v>0.7732738138094896</v>
+        <v>1</v>
       </c>
       <c r="K189" t="n">
-        <v>9.302542691157297</v>
+        <v>3.518552018373181</v>
       </c>
       <c r="L189" t="n">
-        <v>36.17817235066427</v>
+        <v>9.066965167577539</v>
       </c>
     </row>
     <row r="190">
@@ -7661,19 +7661,19 @@
         <v>1985638914253.157</v>
       </c>
       <c r="H190" t="n">
-        <v>2670</v>
+        <v>10680</v>
       </c>
       <c r="I190" t="n">
-        <v>111030</v>
+        <v>122220</v>
       </c>
       <c r="J190" t="n">
-        <v>1.027199855894803</v>
+        <v>0.9331533300605466</v>
       </c>
       <c r="K190" t="n">
-        <v>9.55557051181203</v>
+        <v>3.283348532936192</v>
       </c>
       <c r="L190" t="n">
-        <v>34.44222783565937</v>
+        <v>15.1455357336133</v>
       </c>
     </row>
     <row r="191">
@@ -7699,19 +7699,19 @@
         <v>2794990398900.23</v>
       </c>
       <c r="H191" t="n">
-        <v>2505</v>
+        <v>10020</v>
       </c>
       <c r="I191" t="n">
-        <v>116820</v>
+        <v>124830</v>
       </c>
       <c r="J191" t="n">
-        <v>1.09527478171546</v>
+        <v>1.024993991828887</v>
       </c>
       <c r="K191" t="n">
-        <v>10.46597540649161</v>
+        <v>3.365412519339788</v>
       </c>
       <c r="L191" t="n">
-        <v>28.19622540294998</v>
+        <v>13.02468394709462</v>
       </c>
     </row>
     <row r="192">
@@ -7737,19 +7737,19 @@
         <v>2404228764135.925</v>
       </c>
       <c r="H192" t="n">
-        <v>2180</v>
+        <v>8720</v>
       </c>
       <c r="I192" t="n">
-        <v>130555</v>
+        <v>138070</v>
       </c>
       <c r="J192" t="n">
-        <v>0.9360039829956723</v>
+        <v>0.8850583037589629</v>
       </c>
       <c r="K192" t="n">
-        <v>9.796194666410893</v>
+        <v>2.978586295816051</v>
       </c>
       <c r="L192" t="n">
-        <v>32.7913809830377</v>
+        <v>23.02177430531587</v>
       </c>
     </row>
     <row r="193">
@@ -7775,19 +7775,19 @@
         <v>1319132306674.074</v>
       </c>
       <c r="H193" t="n">
-        <v>1625</v>
+        <v>6500</v>
       </c>
       <c r="I193" t="n">
-        <v>123930</v>
+        <v>130470</v>
       </c>
       <c r="J193" t="n">
-        <v>0.9517469539256032</v>
+        <v>1</v>
       </c>
       <c r="K193" t="n">
-        <v>9.323498433818807</v>
+        <v>2.978586295816051</v>
       </c>
       <c r="L193" t="n">
-        <v>36.03440157305977</v>
+        <v>23.02177430531587</v>
       </c>
     </row>
     <row r="194">
@@ -7813,19 +7813,19 @@
         <v>2166450354763.655</v>
       </c>
       <c r="H194" t="n">
-        <v>2051</v>
+        <v>8204</v>
       </c>
       <c r="I194" t="n">
-        <v>119525</v>
+        <v>124400</v>
       </c>
       <c r="J194" t="n">
-        <v>0.9320225894164401</v>
+        <v>1</v>
       </c>
       <c r="K194" t="n">
-        <v>8.689711152707929</v>
+        <v>2.978586295816051</v>
       </c>
       <c r="L194" t="n">
-        <v>40.38261732055099</v>
+        <v>23.02177430531587</v>
       </c>
     </row>
     <row r="195">
@@ -7851,19 +7851,19 @@
         <v>1235653866284.444</v>
       </c>
       <c r="H195" t="n">
-        <v>1005</v>
+        <v>4020</v>
       </c>
       <c r="I195" t="n">
-        <v>113451</v>
+        <v>119604</v>
       </c>
       <c r="J195" t="n">
-        <v>0.9832438673964972</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
-        <v>8.544105200347017</v>
+        <v>2.978586295816051</v>
       </c>
       <c r="L195" t="n">
-        <v>41.38157409020162</v>
+        <v>23.02177430531587</v>
       </c>
     </row>
     <row r="196">
@@ -7889,19 +7889,19 @@
         <v>3550682669979.409</v>
       </c>
       <c r="H196" t="n">
-        <v>5405</v>
+        <v>21620</v>
       </c>
       <c r="I196" t="n">
-        <v>112555</v>
+        <v>115570</v>
       </c>
       <c r="J196" t="n">
         <v>1</v>
       </c>
       <c r="K196" t="n">
-        <v>8.544105200347017</v>
+        <v>2.978586295816051</v>
       </c>
       <c r="L196" t="n">
-        <v>41.38157409020162</v>
+        <v>23.02177430531587</v>
       </c>
     </row>
     <row r="197">
@@ -7927,19 +7927,19 @@
         <v>2787292858208.087</v>
       </c>
       <c r="H197" t="n">
-        <v>2529</v>
+        <v>10116</v>
       </c>
       <c r="I197" t="n">
-        <v>87245</v>
+        <v>103460</v>
       </c>
       <c r="J197" t="n">
-        <v>1.067339102527366</v>
+        <v>1</v>
       </c>
       <c r="K197" t="n">
-        <v>9.119457576437782</v>
+        <v>2.978586295816051</v>
       </c>
       <c r="L197" t="n">
-        <v>37.43426189786893</v>
+        <v>23.02177430531587</v>
       </c>
     </row>
     <row r="198">
@@ -7965,19 +7965,19 @@
         <v>1582364410073.899</v>
       </c>
       <c r="H198" t="n">
-        <v>2363</v>
+        <v>9452</v>
       </c>
       <c r="I198" t="n">
-        <v>95609</v>
+        <v>103196</v>
       </c>
       <c r="J198" t="n">
-        <v>0.8814023784371764</v>
+        <v>1</v>
       </c>
       <c r="K198" t="n">
-        <v>8.03791159792919</v>
+        <v>2.978586295816051</v>
       </c>
       <c r="L198" t="n">
-        <v>44.8544096281042</v>
+        <v>23.02177430531587</v>
       </c>
     </row>
     <row r="199">
@@ -8003,19 +8003,19 @@
         <v>1085510554973.559</v>
       </c>
       <c r="H199" t="n">
-        <v>1780</v>
+        <v>7120</v>
       </c>
       <c r="I199" t="n">
-        <v>86633</v>
+        <v>93722</v>
       </c>
       <c r="J199" t="n">
         <v>1</v>
       </c>
       <c r="K199" t="n">
-        <v>8.03791159792919</v>
+        <v>2.978586295816051</v>
       </c>
       <c r="L199" t="n">
-        <v>44.8544096281042</v>
+        <v>23.02177430531587</v>
       </c>
     </row>
     <row r="200">
@@ -8041,19 +8041,19 @@
         <v>1344375782687.684</v>
       </c>
       <c r="H200" t="n">
-        <v>2795</v>
+        <v>11180</v>
       </c>
       <c r="I200" t="n">
-        <v>75980</v>
+        <v>81320</v>
       </c>
       <c r="J200" t="n">
-        <v>0.8323242958673335</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
-        <v>6.690149110990286</v>
+        <v>2.978586295816051</v>
       </c>
       <c r="L200" t="n">
-        <v>54.10098532352342</v>
+        <v>23.02177430531587</v>
       </c>
     </row>
     <row r="201">
@@ -8070,28 +8070,28 @@
         <v>57650</v>
       </c>
       <c r="E201" t="n">
-        <v>61580</v>
+        <v>62850</v>
       </c>
       <c r="F201" t="n">
-        <v>4852031.06438414</v>
+        <v>5492536.66695731</v>
       </c>
       <c r="G201" t="n">
-        <v>299962044146.4868</v>
+        <v>340323142299.8795</v>
       </c>
       <c r="H201" t="n">
-        <v>885</v>
+        <v>3540</v>
       </c>
       <c r="I201" t="n">
-        <v>66025</v>
+        <v>74410</v>
       </c>
       <c r="J201" t="n">
-        <v>0.9326770162817115</v>
+        <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>6.239748311318165</v>
+        <v>2.978586295816051</v>
       </c>
       <c r="L201" t="n">
-        <v>57.19104394127334</v>
+        <v>23.02177430531587</v>
       </c>
     </row>
   </sheetData>
